--- a/Data/Poverty/Poverty by Province.xlsx
+++ b/Data/Poverty/Poverty by Province.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-Econ-Data\Data\Poverty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Poverty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD5D773-E4B5-49C8-BE87-70C50322EF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE38B68-A170-4CB9-B8B4-755CBA8F1467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14130" yWindow="2760" windowWidth="14385" windowHeight="10500" xr2:uid="{354455D8-F3A3-48D2-BFDA-2EC7AC494458}"/>
+    <workbookView xWindow="13380" yWindow="1095" windowWidth="14250" windowHeight="12885" xr2:uid="{354455D8-F3A3-48D2-BFDA-2EC7AC494458}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015-2018" sheetId="1" r:id="rId1"/>
+    <sheet name="2015-2021" sheetId="1" r:id="rId1"/>
     <sheet name="2006-2015" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="249">
   <si>
     <t>PSGC</t>
   </si>
@@ -758,6 +758,30 @@
   </si>
   <si>
     <t>168500000</t>
+  </si>
+  <si>
+    <t>2021 Poverty Threshold</t>
+  </si>
+  <si>
+    <t>2021 Poverty Incidence among Families Estimate</t>
+  </si>
+  <si>
+    <t>BARMM</t>
+  </si>
+  <si>
+    <t>2021 Poverty Incidence among Families Lower Limit</t>
+  </si>
+  <si>
+    <t>2021 Poverty Incidence among Families Upper Limit</t>
+  </si>
+  <si>
+    <t>2021 Poverty Incidence among Population Estimate</t>
+  </si>
+  <si>
+    <t>2021 Poverty Incidence among Population Lower Limit</t>
+  </si>
+  <si>
+    <t>2021 Poverty Incidence among Population Upper Limit</t>
   </si>
 </sst>
 </file>
@@ -826,9 +850,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -866,7 +890,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -972,7 +996,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1114,7 +1138,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1122,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A47B97A-6EE3-49DC-9852-128FC78977B9}">
-  <dimension ref="A1:S106"/>
+  <dimension ref="A1:Z106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -1136,10 +1160,10 @@
     <col min="1" max="1" width="12.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="19" width="12.85546875" customWidth="1"/>
+    <col min="4" max="26" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1162,43 +1186,64 @@
         <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -1212,43 +1257,64 @@
         <v>25813.497824622897</v>
       </c>
       <c r="H2" s="2">
+        <v>28871.319939449077</v>
+      </c>
+      <c r="I2" s="2">
         <v>18.012219559473095</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>12.141213642319308</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
+        <v>13.245432215865016</v>
+      </c>
+      <c r="L2" s="2">
         <v>17.37714329031866</v>
       </c>
-      <c r="K2" s="2">
+      <c r="M2" s="2">
         <v>18.647295828627531</v>
       </c>
-      <c r="L2" s="2">
+      <c r="N2" s="2">
         <v>11.868846424754967</v>
       </c>
-      <c r="M2" s="2">
+      <c r="O2" s="2">
         <v>12.413580859883647</v>
       </c>
-      <c r="N2" s="2">
+      <c r="P2" s="2">
+        <v>12.946529852020278</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>13.544334579709755</v>
+      </c>
+      <c r="R2" s="2">
         <v>23.482021781699945</v>
       </c>
-      <c r="O2" s="2">
+      <c r="S2" s="2">
         <v>16.708595917138165</v>
       </c>
-      <c r="P2" s="2">
+      <c r="T2" s="2">
+        <v>18.142008108986257</v>
+      </c>
+      <c r="U2" s="2">
         <v>22.692853267435144</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="V2" s="2">
         <v>24.27119029596475</v>
       </c>
-      <c r="R2" s="2">
+      <c r="W2" s="2">
         <v>16.354592828705293</v>
       </c>
-      <c r="S2" s="2">
+      <c r="X2" s="2">
         <v>17.062599005571041</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y2" s="2">
+        <v>17.75973752566183</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>18.524278692310688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>130000000</v>
       </c>
@@ -1265,43 +1331,64 @@
         <v>28682.274094228836</v>
       </c>
       <c r="H3" s="2">
+        <v>32977.939215496954</v>
+      </c>
+      <c r="I3" s="2">
         <v>2.7813794539273999</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>1.43406218920391</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
+        <v>2.1683107345676693</v>
+      </c>
+      <c r="L3" s="2">
         <v>2.2917363771322243</v>
       </c>
-      <c r="K3" s="2">
+      <c r="M3" s="2">
         <v>3.2710225307225747</v>
       </c>
-      <c r="L3" s="2">
+      <c r="N3" s="2">
         <v>1.18915903817183</v>
       </c>
-      <c r="M3" s="2">
+      <c r="O3" s="2">
         <v>1.6789653402359888</v>
       </c>
-      <c r="N3" s="2">
+      <c r="P3" s="2">
+        <v>1.929263858870861</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2.4073576102644774</v>
+      </c>
+      <c r="R3" s="2">
         <v>4.0658777279239233</v>
       </c>
-      <c r="O3" s="2">
+      <c r="S3" s="2">
         <v>2.245972133463483</v>
       </c>
-      <c r="P3" s="2">
+      <c r="T3" s="2">
+        <v>3.454642239546736</v>
+      </c>
+      <c r="U3" s="2">
         <v>3.3511876570535772</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="V3" s="2">
         <v>4.7805677987942694</v>
       </c>
-      <c r="R3" s="2">
+      <c r="W3" s="2">
         <v>1.8253244733228586</v>
       </c>
-      <c r="S3" s="2">
+      <c r="X3" s="2">
         <v>2.6666197936041072</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y3" s="2">
+        <v>3.0709707098263528</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>3.8383137692671196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>221</v>
       </c>
@@ -1318,43 +1405,64 @@
         <v>28682.274094228836</v>
       </c>
       <c r="H4" s="2">
+        <v>32977.939215496954</v>
+      </c>
+      <c r="I4" s="2">
         <v>3.6253756545028257</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>1.9334107161574496</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
+        <v>1.0704573125735999</v>
+      </c>
+      <c r="L4" s="2">
         <v>2.1115561998241197</v>
       </c>
-      <c r="K4" s="2">
+      <c r="M4" s="2">
         <v>5.1391951091815313</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N4" s="2">
         <v>0.95290961027548504</v>
       </c>
-      <c r="M4" s="2">
+      <c r="O4" s="2">
         <v>2.9139118220394145</v>
       </c>
-      <c r="N4" s="2">
+      <c r="P4" s="2">
+        <v>0.49140213041486752</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1.6495124947323321</v>
+      </c>
+      <c r="R4" s="2">
         <v>5.4437331009073944</v>
       </c>
-      <c r="O4" s="2">
+      <c r="S4" s="2">
         <v>2.9880968726226396</v>
       </c>
-      <c r="P4" s="2">
+      <c r="T4" s="2">
+        <v>1.6867157792340519</v>
+      </c>
+      <c r="U4" s="2">
         <v>3.043572943425819</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="V4" s="2">
         <v>7.8438932583889693</v>
       </c>
-      <c r="R4" s="2">
+      <c r="W4" s="2">
         <v>1.5058326908861508</v>
       </c>
-      <c r="S4" s="2">
+      <c r="X4" s="2">
         <v>4.4703610543591292</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y4" s="2">
+        <v>0.77359069149009352</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>2.5998408669780106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>222</v>
       </c>
@@ -1371,43 +1479,64 @@
         <v>28682.274094228836</v>
       </c>
       <c r="H5" s="2">
+        <v>32977.939215496954</v>
+      </c>
+      <c r="I5" s="2">
         <v>1.9123444583584985</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>1.4265529449258705</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
+        <v>1.6302205686785187</v>
+      </c>
+      <c r="L5" s="2">
         <v>1.2629161075436741</v>
       </c>
-      <c r="K5" s="2">
+      <c r="M5" s="2">
         <v>2.561772809173323</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2">
         <v>0.95400528226874359</v>
       </c>
-      <c r="M5" s="2">
+      <c r="O5" s="2">
         <v>1.8991006075829973</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="2">
+        <v>1.2033667368084449</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2.0570744005485926</v>
+      </c>
+      <c r="R5" s="2">
         <v>2.9087915517132554</v>
       </c>
-      <c r="O5" s="2">
+      <c r="S5" s="2">
         <v>2.2919213848223725</v>
       </c>
-      <c r="P5" s="2">
+      <c r="T5" s="2">
+        <v>2.7862799456483711</v>
+      </c>
+      <c r="U5" s="2">
         <v>1.9508718530718598</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="V5" s="2">
         <v>3.8667112503546512</v>
       </c>
-      <c r="R5" s="2">
+      <c r="W5" s="2">
         <v>1.4224197988525307</v>
       </c>
-      <c r="S5" s="2">
+      <c r="X5" s="2">
         <v>3.1614229707922146</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y5" s="2">
+        <v>2.0649182551053311</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>3.5076416361914116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>223</v>
       </c>
@@ -1424,43 +1553,64 @@
         <v>28682.274094228836</v>
       </c>
       <c r="H6" s="2">
+        <v>32977.939215496954</v>
+      </c>
+      <c r="I6" s="2">
         <v>3.4057465228579913</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>2.1776787604901537</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
+        <v>3.2924703911321802</v>
+      </c>
+      <c r="L6" s="2">
         <v>2.2293999122361772</v>
       </c>
-      <c r="K6" s="2">
+      <c r="M6" s="2">
         <v>4.5820931334798063</v>
       </c>
-      <c r="L6" s="2">
+      <c r="N6" s="2">
         <v>1.6816367659560356</v>
       </c>
-      <c r="M6" s="2">
+      <c r="O6" s="2">
         <v>2.6737207550242719</v>
       </c>
-      <c r="N6" s="2">
+      <c r="P6" s="2">
+        <v>2.7093187493672026</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3.8756220328971578</v>
+      </c>
+      <c r="R6" s="2">
         <v>4.3338066583698858</v>
       </c>
-      <c r="O6" s="2">
+      <c r="S6" s="2">
         <v>3.2559619321636091</v>
       </c>
-      <c r="P6" s="2">
+      <c r="T6" s="2">
+        <v>4.88968415871605</v>
+      </c>
+      <c r="U6" s="2">
         <v>2.8441399421686828</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="V6" s="2">
         <v>5.8234733745710878</v>
       </c>
-      <c r="R6" s="2">
+      <c r="W6" s="2">
         <v>2.462184517747283</v>
       </c>
-      <c r="S6" s="2">
+      <c r="X6" s="2">
         <v>4.0497393465799352</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y6" s="2">
+        <v>4.0374773325473177</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>5.7418909848847832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>224</v>
       </c>
@@ -1474,43 +1624,64 @@
         <v>28682.274094228833</v>
       </c>
       <c r="H7" s="2">
+        <v>32977.939215496954</v>
+      </c>
+      <c r="I7" s="2">
         <v>3.0817130662234624</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>0.69724327988692447</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
+        <v>2.5316569750706348</v>
+      </c>
+      <c r="L7" s="2">
         <v>2.0881615606711805</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>4.0752645717757439</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>0.53119852835801185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>0.86328803141583721</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
+        <v>2.1549188453374439</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2.9083951048038257</v>
+      </c>
+      <c r="R7" s="2">
         <v>4.7824513942890512</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>1.0746169905225802</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
+        <v>4.0588696361679206</v>
+      </c>
+      <c r="U7" s="2">
         <v>3.248842097621782</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="V7" s="2">
         <v>6.3160606909563208</v>
       </c>
-      <c r="R7" s="2">
+      <c r="W7" s="2">
         <v>0.80836093844529644</v>
       </c>
-      <c r="S7" s="2">
+      <c r="X7" s="2">
         <v>1.3408730425998641</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y7" s="2">
+        <v>3.4669528922973978</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>4.6507863800384435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>140000000</v>
       </c>
@@ -1527,43 +1698,64 @@
         <v>24906.728964825808</v>
       </c>
       <c r="H8" s="2">
+        <v>28304.097052843157</v>
+      </c>
+      <c r="I8" s="2">
         <v>17.085509680678289</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>8.6031469438983272</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
+        <v>6.8690864078385161</v>
+      </c>
+      <c r="L8" s="2">
         <v>14.004872357719112</v>
       </c>
-      <c r="K8" s="2">
+      <c r="M8" s="2">
         <v>20.166147003637469</v>
       </c>
-      <c r="L8" s="2">
+      <c r="N8" s="2">
         <v>7.8507157299291528</v>
       </c>
-      <c r="M8" s="2">
+      <c r="O8" s="2">
         <v>9.3555781578675035</v>
       </c>
-      <c r="N8" s="2">
+      <c r="P8" s="2">
+        <v>6.264278785450526</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>7.4738940302265062</v>
+      </c>
+      <c r="R8" s="2">
         <v>22.686058721633053</v>
       </c>
-      <c r="O8" s="2">
+      <c r="S8" s="2">
         <v>12.045181940331087</v>
       </c>
-      <c r="P8" s="2">
+      <c r="T8" s="2">
+        <v>9.9144164822094076</v>
+      </c>
+      <c r="U8" s="2">
         <v>18.902839145442602</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="V8" s="2">
         <v>26.469278297823507</v>
       </c>
-      <c r="R8" s="2">
+      <c r="W8" s="2">
         <v>11.01852247219392</v>
       </c>
-      <c r="S8" s="2">
+      <c r="X8" s="2">
         <v>13.071841408468254</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y8" s="2">
+        <v>9.0730120905901845</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>10.755820873828633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>225</v>
       </c>
@@ -1577,43 +1769,64 @@
         <v>23595.708335897878</v>
       </c>
       <c r="H9" s="2">
+        <v>29321.361713280654</v>
+      </c>
+      <c r="I9" s="2">
         <v>19.896637060570161</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>14.66840774978353</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
+        <v>15.83679129098779</v>
+      </c>
+      <c r="L9" s="2">
         <v>15.053339843177044</v>
       </c>
-      <c r="K9" s="2">
+      <c r="M9" s="2">
         <v>24.739934277963275</v>
       </c>
-      <c r="L9" s="2">
+      <c r="N9" s="2">
         <v>12.59863958541192</v>
       </c>
-      <c r="M9" s="2">
+      <c r="O9" s="2">
         <v>16.738175914155139</v>
       </c>
-      <c r="N9" s="2">
+      <c r="P9" s="2">
+        <v>13.328655306742803</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>18.344927275232774</v>
+      </c>
+      <c r="R9" s="2">
         <v>28.939109596834683</v>
       </c>
-      <c r="O9" s="2">
+      <c r="S9" s="2">
         <v>18.629616345510584</v>
       </c>
-      <c r="P9" s="2">
+      <c r="T9" s="2">
+        <v>21.53805144994767</v>
+      </c>
+      <c r="U9" s="2">
         <v>22.603596256183948</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="V9" s="2">
         <v>35.274622937485418</v>
       </c>
-      <c r="R9" s="2">
+      <c r="W9" s="2">
         <v>16.075399659922144</v>
       </c>
-      <c r="S9" s="2">
+      <c r="X9" s="2">
         <v>21.18383303109902</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y9" s="2">
+        <v>18.369860894702068</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>24.706242005193271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>227</v>
       </c>
@@ -1630,43 +1843,64 @@
         <v>23134.79879707862</v>
       </c>
       <c r="H10" s="2">
+        <v>25693.550973769299</v>
+      </c>
+      <c r="I10" s="2">
         <v>38.073733572359906</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>15.962023431395236</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
+        <v>4.6518135417781936</v>
+      </c>
+      <c r="L10" s="2">
         <v>22.714103659981383</v>
       </c>
-      <c r="K10" s="2">
+      <c r="M10" s="2">
         <v>53.433363484738436</v>
       </c>
-      <c r="L10" s="2">
+      <c r="N10" s="2">
         <v>12.326214410180587</v>
       </c>
-      <c r="M10" s="2">
+      <c r="O10" s="2">
         <v>19.597832452609886</v>
       </c>
-      <c r="N10" s="2">
+      <c r="P10" s="2">
+        <v>2.8983939962975276</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>6.4052330872588605</v>
+      </c>
+      <c r="R10" s="2">
         <v>43.304497492129798</v>
       </c>
-      <c r="O10" s="2">
+      <c r="S10" s="2">
         <v>19.69082595465343</v>
       </c>
-      <c r="P10" s="2">
+      <c r="T10" s="2">
+        <v>6.7891482171602586</v>
+      </c>
+      <c r="U10" s="2">
         <v>27.863293287845369</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="V10" s="2">
         <v>58.74570169641423</v>
       </c>
-      <c r="R10" s="2">
+      <c r="W10" s="2">
         <v>15.309464528072908</v>
       </c>
-      <c r="S10" s="2">
+      <c r="X10" s="2">
         <v>24.072187381233956</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y10" s="2">
+        <v>4.4390352963786697</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>9.1392611379418476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>226</v>
       </c>
@@ -1683,43 +1917,64 @@
         <v>24157.976519482949</v>
       </c>
       <c r="H11" s="2">
+        <v>27519.077626870461</v>
+      </c>
+      <c r="I11" s="2">
         <v>2.5915413037669408</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>4.2428631835065911</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
+        <v>3.9075828550094451</v>
+      </c>
+      <c r="L11" s="2">
         <v>1.6220662276492352</v>
       </c>
-      <c r="K11" s="2">
+      <c r="M11" s="2">
         <v>3.5610163798846459</v>
       </c>
-      <c r="L11" s="2">
+      <c r="N11" s="2">
         <v>3.2616181707154781</v>
       </c>
-      <c r="M11" s="2">
+      <c r="O11" s="2">
         <v>5.2241081962977045</v>
       </c>
-      <c r="N11" s="2">
+      <c r="P11" s="2">
+        <v>3.209266324713056</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>4.6058993853058343</v>
+      </c>
+      <c r="R11" s="2">
         <v>3.6190137672413414</v>
       </c>
-      <c r="O11" s="2">
+      <c r="S11" s="2">
         <v>5.9646904453270357</v>
       </c>
-      <c r="P11" s="2">
+      <c r="T11" s="2">
+        <v>5.6154660817932394</v>
+      </c>
+      <c r="U11" s="2">
         <v>2.2678228460627254</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="V11" s="2">
         <v>4.9702046884199573</v>
       </c>
-      <c r="R11" s="2">
+      <c r="W11" s="2">
         <v>4.5851514652300596</v>
       </c>
-      <c r="S11" s="2">
+      <c r="X11" s="2">
         <v>7.3442294254240119</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y11" s="2">
+        <v>4.6168158730058559</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>6.6141162905806237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>228</v>
       </c>
@@ -1733,43 +1988,64 @@
         <v>26429.393162900345</v>
       </c>
       <c r="H12" s="2">
+        <v>28734.239538092323</v>
+      </c>
+      <c r="I12" s="2">
         <v>34.936917557443088</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>9.9190411863157557</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
+        <v>6.0178866900219852</v>
+      </c>
+      <c r="L12" s="2">
         <v>23.454971480784202</v>
       </c>
-      <c r="K12" s="2">
+      <c r="M12" s="2">
         <v>46.418863634101967</v>
       </c>
-      <c r="L12" s="2">
+      <c r="N12" s="2">
         <v>7.4525191698501736</v>
       </c>
-      <c r="M12" s="2">
+      <c r="O12" s="2">
         <v>12.38556320278134</v>
       </c>
-      <c r="N12" s="2">
+      <c r="P12" s="2">
+        <v>4.2125766544689709</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>7.8231967255750003</v>
+      </c>
+      <c r="R12" s="2">
         <v>42.416166507712973</v>
       </c>
-      <c r="O12" s="2">
+      <c r="S12" s="2">
         <v>14.50797413606473</v>
       </c>
-      <c r="P12" s="2">
+      <c r="T12" s="2">
+        <v>8.0681716286335217</v>
+      </c>
+      <c r="U12" s="2">
         <v>29.129249704143167</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="V12" s="2">
         <v>55.703083311282775</v>
       </c>
-      <c r="R12" s="2">
+      <c r="W12" s="2">
         <v>11.067694288518746</v>
       </c>
-      <c r="S12" s="2">
+      <c r="X12" s="2">
         <v>17.948253983610712</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y12" s="2">
+        <v>5.73283977092896</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>10.403503486338083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>229</v>
       </c>
@@ -1783,43 +2059,64 @@
         <v>24218.991530069772</v>
       </c>
       <c r="H13" s="2">
+        <v>25447.363144558076</v>
+      </c>
+      <c r="I13" s="2">
         <v>34.488719956618532</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>9.1817919144071105</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
+        <v>5.6074974155392958</v>
+      </c>
+      <c r="L13" s="2">
         <v>25.232706472520199</v>
       </c>
-      <c r="K13" s="2">
+      <c r="M13" s="2">
         <v>43.744733440716857</v>
       </c>
-      <c r="L13" s="2">
+      <c r="N13" s="2">
         <v>7.2904665530691499</v>
       </c>
-      <c r="M13" s="2">
+      <c r="O13" s="2">
         <v>11.073117275745073</v>
       </c>
-      <c r="N13" s="2">
+      <c r="P13" s="2">
+        <v>3.8822267544733209</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>7.3327680766052703</v>
+      </c>
+      <c r="R13" s="2">
         <v>40.677749416582273</v>
       </c>
-      <c r="O13" s="2">
+      <c r="S13" s="2">
         <v>12.103111471077485</v>
       </c>
-      <c r="P13" s="2">
+      <c r="T13" s="2">
+        <v>8.3290183458484428</v>
+      </c>
+      <c r="U13" s="2">
         <v>31.62430117867715</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="V13" s="2">
         <v>49.731197654487389</v>
       </c>
-      <c r="R13" s="2">
+      <c r="W13" s="2">
         <v>9.5685919744589309</v>
       </c>
-      <c r="S13" s="2">
+      <c r="X13" s="2">
         <v>14.637630967696039</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y13" s="2">
+        <v>5.7818238782959526</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>10.876212813400935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>230</v>
       </c>
@@ -1833,43 +2130,64 @@
         <v>27815.238883138554</v>
       </c>
       <c r="H14" s="2">
+        <v>31062.663932208383</v>
+      </c>
+      <c r="I14" s="2">
         <v>33.136300250362503</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>17.135863437806261</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
+        <v>15.284222762690336</v>
+      </c>
+      <c r="L14" s="2">
         <v>23.683240781242219</v>
       </c>
-      <c r="K14" s="2">
+      <c r="M14" s="2">
         <v>42.589359719482786</v>
       </c>
-      <c r="L14" s="2">
+      <c r="N14" s="2">
         <v>14.240126380770668</v>
       </c>
-      <c r="M14" s="2">
+      <c r="O14" s="2">
         <v>20.031600494841857</v>
       </c>
-      <c r="N14" s="2">
+      <c r="P14" s="2">
+        <v>12.643581142401578</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>17.924864382979095</v>
+      </c>
+      <c r="R14" s="2">
         <v>44.703976697302231</v>
       </c>
-      <c r="O14" s="2">
+      <c r="S14" s="2">
         <v>24.584605240732898</v>
       </c>
-      <c r="P14" s="2">
+      <c r="T14" s="2">
+        <v>22.207352501488025</v>
+      </c>
+      <c r="U14" s="2">
         <v>34.632187030997116</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="V14" s="2">
         <v>54.775766363607339</v>
       </c>
-      <c r="R14" s="2">
+      <c r="W14" s="2">
         <v>20.598879579916598</v>
       </c>
-      <c r="S14" s="2">
+      <c r="X14" s="2">
         <v>28.570330901549202</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y14" s="2">
+        <v>18.791326871829696</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>25.623378131146357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>146</v>
       </c>
@@ -1886,43 +2204,64 @@
         <v>27054.966437537987</v>
       </c>
       <c r="H15" s="2">
+        <v>31113.052005434965</v>
+      </c>
+      <c r="I15" s="2">
         <v>13.972503816710285</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>7.0199244091813302</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
+        <v>10.957229547511451</v>
+      </c>
+      <c r="L15" s="2">
         <v>12.03841287481759</v>
       </c>
-      <c r="K15" s="2">
+      <c r="M15" s="2">
         <v>15.906594758602981</v>
       </c>
-      <c r="L15" s="2">
+      <c r="N15" s="2">
         <v>5.9127691685833099</v>
       </c>
-      <c r="M15" s="2">
+      <c r="O15" s="2">
         <v>8.1270796497793505</v>
       </c>
-      <c r="N15" s="2">
+      <c r="P15" s="2">
+        <v>9.7387420499152064</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>12.175717045107698</v>
+      </c>
+      <c r="R15" s="2">
         <v>18.808611222952173</v>
       </c>
-      <c r="O15" s="2">
+      <c r="S15" s="2">
         <v>9.8512736429231271</v>
       </c>
-      <c r="P15" s="2">
+      <c r="T15" s="2">
+        <v>14.355868429414494</v>
+      </c>
+      <c r="U15" s="2">
         <v>16.267276915968427</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="V15" s="2">
         <v>21.349945529935923</v>
       </c>
-      <c r="R15" s="2">
+      <c r="W15" s="2">
         <v>8.4012706387859666</v>
       </c>
-      <c r="S15" s="2">
+      <c r="X15" s="2">
         <v>11.301276647060286</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y15" s="2">
+        <v>12.829544547294066</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>15.882192311534924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
@@ -1939,43 +2278,64 @@
         <v>26710.504020326149</v>
       </c>
       <c r="H16" s="2">
+        <v>31031.11722342901</v>
+      </c>
+      <c r="I16" s="2">
         <v>5.2412362049580699</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>3.0758217649224071</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
+        <v>1.7443060864650819</v>
+      </c>
+      <c r="L16" s="2">
         <v>2.3460874556627722</v>
       </c>
-      <c r="K16" s="2">
+      <c r="M16" s="2">
         <v>8.1363849542533675</v>
       </c>
-      <c r="L16" s="2">
+      <c r="N16" s="2">
         <v>1.9515979624328377</v>
       </c>
-      <c r="M16" s="2">
+      <c r="O16" s="2">
         <v>4.2000455674119763</v>
       </c>
-      <c r="N16" s="2">
+      <c r="P16" s="2">
+        <v>0.92868773664620974</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>2.5599244362839544</v>
+      </c>
+      <c r="R16" s="2">
         <v>7.9974835472412797</v>
       </c>
-      <c r="O16" s="2">
+      <c r="S16" s="2">
         <v>4.4716611408270133</v>
       </c>
-      <c r="P16" s="2">
+      <c r="T16" s="2">
+        <v>2.5135002741656147</v>
+      </c>
+      <c r="U16" s="2">
         <v>3.6829300105195277</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="V16" s="2">
         <v>12.312037083963032</v>
       </c>
-      <c r="R16" s="2">
+      <c r="W16" s="2">
         <v>2.9874020078291839</v>
       </c>
-      <c r="S16" s="2">
+      <c r="X16" s="2">
         <v>5.9559202738248436</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y16" s="2">
+        <v>1.4458918219783148</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>3.5811087263529147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>148</v>
       </c>
@@ -1992,43 +2352,64 @@
         <v>24602.81752556052</v>
       </c>
       <c r="H17" s="2">
+        <v>32751.898917580373</v>
+      </c>
+      <c r="I17" s="2">
         <v>10.791041984275665</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>5.4521674308553187</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
+        <v>11.500426435901515</v>
+      </c>
+      <c r="L17" s="2">
         <v>6.4659872904090063</v>
       </c>
-      <c r="K17" s="2">
+      <c r="M17" s="2">
         <v>15.116096678142323</v>
       </c>
-      <c r="L17" s="2">
+      <c r="N17" s="2">
         <v>4.1456394882883982</v>
       </c>
-      <c r="M17" s="2">
+      <c r="O17" s="2">
         <v>6.7586953734222392</v>
       </c>
-      <c r="N17" s="2">
+      <c r="P17" s="2">
+        <v>9.5370649754613837</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>13.463787896341644</v>
+      </c>
+      <c r="R17" s="2">
         <v>13.888292753742014</v>
       </c>
-      <c r="O17" s="2">
+      <c r="S17" s="2">
         <v>7.495705816786244</v>
       </c>
-      <c r="P17" s="2">
+      <c r="T17" s="2">
+        <v>15.059116352296023</v>
+      </c>
+      <c r="U17" s="2">
         <v>9.2476188702614763</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="V17" s="2">
         <v>18.528966637222556</v>
       </c>
-      <c r="R17" s="2">
+      <c r="W17" s="2">
         <v>5.7029356809211436</v>
       </c>
-      <c r="S17" s="2">
+      <c r="X17" s="2">
         <v>9.2884759526513445</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y17" s="2">
+        <v>12.496643052385062</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>17.621589652206985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>149</v>
       </c>
@@ -2045,43 +2426,64 @@
         <v>22456.425215536565</v>
       </c>
       <c r="H18" s="2">
+        <v>27908.598984073094</v>
+      </c>
+      <c r="I18" s="2">
         <v>13.516540462158144</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>2.8753882312916987</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
+        <v>6.6407610947079894</v>
+      </c>
+      <c r="L18" s="2">
         <v>8.9777861651003761</v>
       </c>
-      <c r="K18" s="2">
+      <c r="M18" s="2">
         <v>18.055294759215911</v>
       </c>
-      <c r="L18" s="2">
+      <c r="N18" s="2">
         <v>1.9470663995877564</v>
       </c>
-      <c r="M18" s="2">
+      <c r="O18" s="2">
         <v>3.8037100629956413</v>
       </c>
-      <c r="N18" s="2">
+      <c r="P18" s="2">
+        <v>5.1830278377155707</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>8.098494351700408</v>
+      </c>
+      <c r="R18" s="2">
         <v>17.527919159228613</v>
       </c>
-      <c r="O18" s="2">
+      <c r="S18" s="2">
         <v>4.4280182241822592</v>
       </c>
-      <c r="P18" s="2">
+      <c r="T18" s="2">
+        <v>9.2551191204733119</v>
+      </c>
+      <c r="U18" s="2">
         <v>11.781012748301588</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="V18" s="2">
         <v>23.274825570155638</v>
       </c>
-      <c r="R18" s="2">
+      <c r="W18" s="2">
         <v>2.9595687553518157</v>
       </c>
-      <c r="S18" s="2">
+      <c r="X18" s="2">
         <v>5.8964676930127027</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y18" s="2">
+        <v>7.3144482045437993</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>11.195790036402824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>150</v>
       </c>
@@ -2095,43 +2497,64 @@
         <v>27827.678942751856</v>
       </c>
       <c r="H19" s="2">
+        <v>31239.958572113159</v>
+      </c>
+      <c r="I19" s="2">
         <v>16.947803345318306</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <v>9.3078560343909444</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
+        <v>13.867911591950177</v>
+      </c>
+      <c r="L19" s="2">
         <v>14.208307821207269</v>
       </c>
-      <c r="K19" s="2">
+      <c r="M19" s="2">
         <v>19.687298869429345</v>
       </c>
-      <c r="L19" s="2">
+      <c r="N19" s="2">
         <v>7.465619728547443</v>
       </c>
-      <c r="M19" s="2">
+      <c r="O19" s="2">
         <v>11.150092340234446</v>
       </c>
-      <c r="N19" s="2">
+      <c r="P19" s="2">
+        <v>11.891244780581566</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>15.844578403318788</v>
+      </c>
+      <c r="R19" s="2">
         <v>22.77386225816749</v>
       </c>
-      <c r="O19" s="2">
+      <c r="S19" s="2">
         <v>12.905959494929832</v>
       </c>
-      <c r="P19" s="2">
+      <c r="T19" s="2">
+        <v>17.877101632662416</v>
+      </c>
+      <c r="U19" s="2">
         <v>19.137468554330635</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="V19" s="2">
         <v>26.410255962004349</v>
       </c>
-      <c r="R19" s="2">
+      <c r="W19" s="2">
         <v>10.531493691951752</v>
       </c>
-      <c r="S19" s="2">
+      <c r="X19" s="2">
         <v>15.280425297907909</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y19" s="2">
+        <v>15.423723809309841</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>20.330479456014995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>151</v>
       </c>
@@ -2148,43 +2571,64 @@
         <v>25098.501822777289</v>
       </c>
       <c r="H20" s="2">
+        <v>28292.064617635093</v>
+      </c>
+      <c r="I20" s="2">
         <v>13.11875688371271</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <v>12.468500520423827</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
+        <v>11.704513894144066</v>
+      </c>
+      <c r="L20" s="2">
         <v>11.423516499050603</v>
       </c>
-      <c r="K20" s="2">
+      <c r="M20" s="2">
         <v>14.813997268374818</v>
       </c>
-      <c r="L20" s="2">
+      <c r="N20" s="2">
         <v>11.163066453235478</v>
       </c>
-      <c r="M20" s="2">
+      <c r="O20" s="2">
         <v>13.773934587612176</v>
       </c>
-      <c r="N20" s="2">
+      <c r="P20" s="2">
+        <v>10.331989610725882</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>13.077038177562248</v>
+      </c>
+      <c r="R20" s="2">
         <v>17.765533976865239</v>
       </c>
-      <c r="O20" s="2">
+      <c r="S20" s="2">
         <v>16.285766644008579</v>
       </c>
-      <c r="P20" s="2">
+      <c r="T20" s="2">
+        <v>15.386409147963024</v>
+      </c>
+      <c r="U20" s="2">
         <v>15.478888121405673</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="V20" s="2">
         <v>20.052179832324803</v>
       </c>
-      <c r="R20" s="2">
+      <c r="W20" s="2">
         <v>14.65289399892904</v>
       </c>
-      <c r="S20" s="2">
+      <c r="X20" s="2">
         <v>17.918639289088116</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y20" s="2">
+        <v>13.673618594860532</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>17.099199701065515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>152</v>
       </c>
@@ -2201,43 +2645,64 @@
         <v>37539.815442856518</v>
       </c>
       <c r="H21" s="2">
+        <v>35550.352182426584</v>
+      </c>
+      <c r="I21" s="2">
         <v>10.000000000000002</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <v>6.5290345906114879</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
+        <v>2.5684090967557585</v>
+      </c>
+      <c r="L21" s="2">
         <v>10</v>
       </c>
-      <c r="K21" s="2">
+      <c r="M21" s="2">
         <v>10.000000000000004</v>
       </c>
-      <c r="L21" s="2">
+      <c r="N21" s="2">
         <v>4.823041716283905</v>
       </c>
-      <c r="M21" s="2">
+      <c r="O21" s="2">
         <v>8.2350274649390709</v>
       </c>
-      <c r="N21" s="2">
+      <c r="P21" s="2">
+        <v>1.4045826973903637</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>3.7322354961211537</v>
+      </c>
+      <c r="R21" s="2">
         <v>13.684210144511963</v>
       </c>
-      <c r="O21" s="2">
+      <c r="S21" s="2">
         <v>9.5589315463484876</v>
       </c>
-      <c r="P21" s="2">
+      <c r="T21" s="2">
+        <v>3.3695775533732522</v>
+      </c>
+      <c r="U21" s="2">
         <v>13.68421014451196</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="V21" s="2">
         <v>13.684210144511965</v>
       </c>
-      <c r="R21" s="2">
+      <c r="W21" s="2">
         <v>6.9413257717310772</v>
       </c>
-      <c r="S21" s="2">
+      <c r="X21" s="2">
         <v>12.176537320965899</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y21" s="2">
+        <v>1.8366982662787084</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>4.9024568404677966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>153</v>
       </c>
@@ -2251,43 +2716,64 @@
         <v>24759.120365893901</v>
       </c>
       <c r="H22" s="2">
+        <v>26954.247846527316</v>
+      </c>
+      <c r="I22" s="2">
         <v>13.995740703258777</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>12.49214740437518</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
+        <v>7.3077237139077154</v>
+      </c>
+      <c r="L22" s="2">
         <v>10.946269682358151</v>
       </c>
-      <c r="K22" s="2">
+      <c r="M22" s="2">
         <v>17.045211724159405</v>
       </c>
-      <c r="L22" s="2">
+      <c r="N22" s="2">
         <v>10.499363791779134</v>
       </c>
-      <c r="M22" s="2">
+      <c r="O22" s="2">
         <v>14.484931016971226</v>
       </c>
-      <c r="N22" s="2">
+      <c r="P22" s="2">
+        <v>5.6685456929489639</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>8.9469017348664668</v>
+      </c>
+      <c r="R22" s="2">
         <v>16.665146390095224</v>
       </c>
-      <c r="O22" s="2">
+      <c r="S22" s="2">
         <v>15.993152844992418</v>
       </c>
-      <c r="P22" s="2">
+      <c r="T22" s="2">
+        <v>10.100401315802818</v>
+      </c>
+      <c r="U22" s="2">
         <v>13.02491480694977</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="V22" s="2">
         <v>20.305377973240677</v>
       </c>
-      <c r="R22" s="2">
+      <c r="W22" s="2">
         <v>13.523872430660397</v>
       </c>
-      <c r="S22" s="2">
+      <c r="X22" s="2">
         <v>18.462433259324438</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y22" s="2">
+        <v>7.8827811809329251</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>12.31802145067271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>154</v>
       </c>
@@ -2301,43 +2787,64 @@
         <v>25460.185751069144</v>
       </c>
       <c r="H23" s="2">
+        <v>29451.724862146526</v>
+      </c>
+      <c r="I23" s="2">
         <v>12.390532737133395</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <v>13.192025596947172</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
+        <v>15.905692273458916</v>
+      </c>
+      <c r="L23" s="2">
         <v>10.154143901606522</v>
       </c>
-      <c r="K23" s="2">
+      <c r="M23" s="2">
         <v>14.626921572660267</v>
       </c>
-      <c r="L23" s="2">
+      <c r="N23" s="2">
         <v>10.900860734943423</v>
       </c>
-      <c r="M23" s="2">
+      <c r="O23" s="2">
         <v>15.483190458950919</v>
       </c>
-      <c r="N23" s="2">
+      <c r="P23" s="2">
+        <v>13.344255152065179</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>18.467129394852652</v>
+      </c>
+      <c r="R23" s="2">
         <v>17.8687516706451</v>
       </c>
-      <c r="O23" s="2">
+      <c r="S23" s="2">
         <v>17.084564390099953</v>
       </c>
-      <c r="P23" s="2">
+      <c r="T23" s="2">
+        <v>20.260268332773293</v>
+      </c>
+      <c r="U23" s="2">
         <v>14.612119720190236</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="V23" s="2">
         <v>21.125383621099964</v>
       </c>
-      <c r="R23" s="2">
+      <c r="W23" s="2">
         <v>14.246377178336548</v>
       </c>
-      <c r="S23" s="2">
+      <c r="X23" s="2">
         <v>19.922751601863357</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y23" s="2">
+        <v>17.183307935230918</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>23.337228730315669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>155</v>
       </c>
@@ -2354,43 +2861,64 @@
         <v>24857.039879341559</v>
       </c>
       <c r="H24" s="2">
+        <v>25513.88884579072</v>
+      </c>
+      <c r="I24" s="2">
         <v>10.468531394043072</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <v>11.633815567433897</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
+        <v>10.817835953121502</v>
+      </c>
+      <c r="L24" s="2">
         <v>5.9476722482900275</v>
       </c>
-      <c r="K24" s="2">
+      <c r="M24" s="2">
         <v>14.989390539796116</v>
       </c>
-      <c r="L24" s="2">
+      <c r="N24" s="2">
         <v>9.1649956517376818</v>
       </c>
-      <c r="M24" s="2">
+      <c r="O24" s="2">
         <v>14.102635483130113</v>
       </c>
-      <c r="N24" s="2">
+      <c r="P24" s="2">
+        <v>8.3447380534340532</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>13.290933852808951</v>
+      </c>
+      <c r="R24" s="2">
         <v>15.36929193711252</v>
       </c>
-      <c r="O24" s="2">
+      <c r="S24" s="2">
         <v>16.050408192079122</v>
       </c>
-      <c r="P24" s="2">
+      <c r="T24" s="2">
+        <v>15.342725224654483</v>
+      </c>
+      <c r="U24" s="2">
         <v>9.3438942829838201</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="V24" s="2">
         <v>21.394689591241221</v>
       </c>
-      <c r="R24" s="2">
+      <c r="W24" s="2">
         <v>12.721475559275714</v>
       </c>
-      <c r="S24" s="2">
+      <c r="X24" s="2">
         <v>19.379340824882529</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y24" s="2">
+        <v>11.9775348342848</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>18.707915615024167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>156</v>
       </c>
@@ -2407,43 +2935,64 @@
         <v>23580.076361843603</v>
       </c>
       <c r="H25" s="2">
+        <v>27059.558950731036</v>
+      </c>
+      <c r="I25" s="2">
         <v>20.31147443595118</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <v>8.9392369840116057</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
+        <v>6.1684570812375421</v>
+      </c>
+      <c r="L25" s="2">
         <v>11.293138783192243</v>
       </c>
-      <c r="K25" s="2">
+      <c r="M25" s="2">
         <v>29.329810088710119</v>
       </c>
-      <c r="L25" s="2">
+      <c r="N25" s="2">
         <v>7.2587223101857248</v>
       </c>
-      <c r="M25" s="2">
+      <c r="O25" s="2">
         <v>10.619751657837487</v>
       </c>
-      <c r="N25" s="2">
+      <c r="P25" s="2">
+        <v>4.6836966945365441</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>7.6532174679385419</v>
+      </c>
+      <c r="R25" s="2">
         <v>28.363050251419136</v>
       </c>
-      <c r="O25" s="2">
+      <c r="S25" s="2">
         <v>12.559292077940018</v>
       </c>
-      <c r="P25" s="2">
+      <c r="T25" s="2">
+        <v>9.0819553860097706</v>
+      </c>
+      <c r="U25" s="2">
         <v>15.452001053939288</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="V25" s="2">
         <v>41.27409944889898</v>
       </c>
-      <c r="R25" s="2">
+      <c r="W25" s="2">
         <v>10.190336032639671</v>
       </c>
-      <c r="S25" s="2">
+      <c r="X25" s="2">
         <v>14.928248123240365</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y25" s="2">
+        <v>7.0386653668642021</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>11.12524540515534</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>157</v>
       </c>
@@ -2460,43 +3009,64 @@
         <v>26954.396464009958</v>
       </c>
       <c r="H26" s="2">
+        <v>31584.338560629905</v>
+      </c>
+      <c r="I26" s="2">
         <v>8.2950901331876459</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <v>5.1507425183453295</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
+        <v>8.2813737897078479</v>
+      </c>
+      <c r="L26" s="2">
         <v>6.9698203267550731</v>
       </c>
-      <c r="K26" s="2">
+      <c r="M26" s="2">
         <v>9.6203599396202168</v>
       </c>
-      <c r="L26" s="2">
+      <c r="N26" s="2">
         <v>4.6051468310468486</v>
       </c>
-      <c r="M26" s="2">
+      <c r="O26" s="2">
         <v>5.6963382056438103</v>
       </c>
-      <c r="N26" s="2">
+      <c r="P26" s="2">
+        <v>7.5069459448149853</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>9.0558016346007104</v>
+      </c>
+      <c r="R26" s="2">
         <v>10.531605012710072</v>
       </c>
-      <c r="O26" s="2">
+      <c r="S26" s="2">
         <v>7.0356145727393331</v>
       </c>
-      <c r="P26" s="2">
+      <c r="T26" s="2">
+        <v>11.429836454565965</v>
+      </c>
+      <c r="U26" s="2">
         <v>8.9692530728875344</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="V26" s="2">
         <v>12.093956952532608</v>
       </c>
-      <c r="R26" s="2">
+      <c r="W26" s="2">
         <v>6.3119484604950982</v>
       </c>
-      <c r="S26" s="2">
+      <c r="X26" s="2">
         <v>7.7592806849835689</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y26" s="2">
+        <v>10.368465658076582</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>12.491207251055348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>158</v>
       </c>
@@ -2513,43 +3083,64 @@
         <v>25218.850348192376</v>
       </c>
       <c r="H27" s="2">
+        <v>30282.189220225177</v>
+      </c>
+      <c r="I27" s="2">
         <v>27.2994312578479</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="2">
         <v>11.781529175906909</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
+        <v>16.483835140009649</v>
+      </c>
+      <c r="L27" s="2">
         <v>21.336372677554426</v>
       </c>
-      <c r="K27" s="2">
+      <c r="M27" s="2">
         <v>33.262489838141377</v>
       </c>
-      <c r="L27" s="2">
+      <c r="N27" s="2">
         <v>9.5356067574590497</v>
       </c>
-      <c r="M27" s="2">
+      <c r="O27" s="2">
         <v>14.027451594354771</v>
       </c>
-      <c r="N27" s="2">
+      <c r="P27" s="2">
+        <v>13.412881115416663</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>19.554789164602639</v>
+      </c>
+      <c r="R27" s="2">
         <v>33.769306056244218</v>
       </c>
-      <c r="O27" s="2">
+      <c r="S27" s="2">
         <v>16.387121857701995</v>
       </c>
-      <c r="P27" s="2">
+      <c r="T27" s="2">
+        <v>21.594717360022685</v>
+      </c>
+      <c r="U27" s="2">
         <v>26.275421325370719</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="V27" s="2">
         <v>41.263190787117722</v>
       </c>
-      <c r="R27" s="2">
+      <c r="W27" s="2">
         <v>13.424881319131543</v>
       </c>
-      <c r="S27" s="2">
+      <c r="X27" s="2">
         <v>19.349362396272447</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y27" s="2">
+        <v>17.704951045345702</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>25.484483674699671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>159</v>
       </c>
@@ -2566,43 +3157,64 @@
         <v>29496.130332552675</v>
       </c>
       <c r="H28" s="2">
+        <v>31045.698982141912</v>
+      </c>
+      <c r="I28" s="2">
         <v>0.81134964142131127</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <v>5.8222879466156803</v>
       </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
+        <v>9.04091816153616</v>
+      </c>
+      <c r="L28" s="2">
         <v>0</v>
       </c>
-      <c r="K28" s="2">
+      <c r="M28" s="2">
         <v>2.1082238631763826</v>
       </c>
-      <c r="L28" s="2">
+      <c r="N28" s="2">
         <v>4.4439786469002316</v>
       </c>
-      <c r="M28" s="2">
+      <c r="O28" s="2">
         <v>7.200597246331129</v>
       </c>
-      <c r="N28" s="2">
+      <c r="P28" s="2">
+        <v>7.3610262022793469</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>10.720810120792972</v>
+      </c>
+      <c r="R28" s="2">
         <v>1.2151919198704375</v>
       </c>
-      <c r="O28" s="2">
+      <c r="S28" s="2">
         <v>7.9108794050802649</v>
       </c>
-      <c r="P28" s="2">
+      <c r="T28" s="2">
+        <v>11.623506694903174</v>
+      </c>
+      <c r="U28" s="2">
         <v>0</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="V28" s="2">
         <v>3.156184670291144</v>
       </c>
-      <c r="R28" s="2">
+      <c r="W28" s="2">
         <v>6.1150733220322415</v>
       </c>
-      <c r="S28" s="2">
+      <c r="X28" s="2">
         <v>9.7066854881282882</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y28" s="2">
+        <v>9.6435545078142315</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>13.603458881992117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>160</v>
       </c>
@@ -2619,43 +3231,64 @@
         <v>27244.151391109677</v>
       </c>
       <c r="H29" s="2">
+        <v>33591.103971983131</v>
+      </c>
+      <c r="I29" s="2">
         <v>3.0648155110353281</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <v>3.5483547242198044</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
+        <v>8.2652617242385986</v>
+      </c>
+      <c r="L29" s="2">
         <v>2.0162935159637763</v>
       </c>
-      <c r="K29" s="2">
+      <c r="M29" s="2">
         <v>4.1133375061068804</v>
       </c>
-      <c r="L29" s="2">
+      <c r="N29" s="2">
         <v>2.4242661209986709</v>
       </c>
-      <c r="M29" s="2">
+      <c r="O29" s="2">
         <v>4.6724433274409378</v>
       </c>
-      <c r="N29" s="2">
+      <c r="P29" s="2">
+        <v>6.3330838625149184</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>10.197439585962279</v>
+      </c>
+      <c r="R29" s="2">
         <v>4.1098894861143815</v>
       </c>
-      <c r="O29" s="2">
+      <c r="S29" s="2">
         <v>5.0526619336954885</v>
       </c>
-      <c r="P29" s="2">
+      <c r="T29" s="2">
+        <v>11.032067378154538</v>
+      </c>
+      <c r="U29" s="2">
         <v>2.5558604734395258</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="V29" s="2">
         <v>5.6639184987892364</v>
       </c>
-      <c r="R29" s="2">
+      <c r="W29" s="2">
         <v>3.4591730931180455</v>
       </c>
-      <c r="S29" s="2">
+      <c r="X29" s="2">
         <v>6.6461507742729315</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y29" s="2">
+        <v>8.3817135618748395</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>13.682421194434239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>161</v>
       </c>
@@ -2669,43 +3302,64 @@
         <v>25465.840215000266</v>
       </c>
       <c r="H30" s="2">
+        <v>29751.425467272566</v>
+      </c>
+      <c r="I30" s="2">
         <v>16.834471433986305</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <v>6.5745071484020254</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
+        <v>9.9536788852708451</v>
+      </c>
+      <c r="L30" s="2">
         <v>13.324322314203618</v>
       </c>
-      <c r="K30" s="2">
+      <c r="M30" s="2">
         <v>20.344620553768994</v>
       </c>
-      <c r="L30" s="2">
+      <c r="N30" s="2">
         <v>5.1286798019198594</v>
       </c>
-      <c r="M30" s="2">
+      <c r="O30" s="2">
         <v>8.0203344948841924</v>
       </c>
-      <c r="N30" s="2">
+      <c r="P30" s="2">
+        <v>7.868877327063557</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>12.038480443478132</v>
+      </c>
+      <c r="R30" s="2">
         <v>20.703361828548868</v>
       </c>
-      <c r="O30" s="2">
+      <c r="S30" s="2">
         <v>8.5462317717185723</v>
       </c>
-      <c r="P30" s="2">
+      <c r="T30" s="2">
+        <v>13.866367858164082</v>
+      </c>
+      <c r="U30" s="2">
         <v>16.784950064402135</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="V30" s="2">
         <v>24.621773592695597</v>
       </c>
-      <c r="R30" s="2">
+      <c r="W30" s="2">
         <v>6.7038442245049774</v>
       </c>
-      <c r="S30" s="2">
+      <c r="X30" s="2">
         <v>10.388619318932166</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y30" s="2">
+        <v>11.062835012724461</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>16.669900703603709</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>162</v>
       </c>
@@ -2722,43 +3376,64 @@
         <v>26633.096472387097</v>
       </c>
       <c r="H31" s="2">
+        <v>33122.403492358084</v>
+      </c>
+      <c r="I31" s="2">
         <v>2.7059943350582465</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="2">
         <v>2.1091333038612157</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
+        <v>2.9387756443061503</v>
+      </c>
+      <c r="L31" s="2">
         <v>1.7287526881408006</v>
       </c>
-      <c r="K31" s="2">
+      <c r="M31" s="2">
         <v>3.6832359819756926</v>
       </c>
-      <c r="L31" s="2">
+      <c r="N31" s="2">
         <v>1.093154233637899</v>
       </c>
-      <c r="M31" s="2">
+      <c r="O31" s="2">
         <v>3.1251123740845319</v>
       </c>
-      <c r="N31" s="2">
+      <c r="P31" s="2">
+        <v>2.1073844454495392</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>3.7701668431627615</v>
+      </c>
+      <c r="R31" s="2">
         <v>4.5945267198355459</v>
       </c>
-      <c r="O31" s="2">
+      <c r="S31" s="2">
         <v>3.0049497267598846</v>
       </c>
-      <c r="P31" s="2">
+      <c r="T31" s="2">
+        <v>4.8555875906390398</v>
+      </c>
+      <c r="U31" s="2">
         <v>2.9267063798125603</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="V31" s="2">
         <v>6.2623470598585325</v>
       </c>
-      <c r="R31" s="2">
+      <c r="W31" s="2">
         <v>1.749761658047853</v>
       </c>
-      <c r="S31" s="2">
+      <c r="X31" s="2">
         <v>4.2601377954719162</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y31" s="2">
+        <v>3.5036090107791371</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>6.2075661704989429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>163</v>
       </c>
@@ -2772,43 +3447,64 @@
         <v>25385.57426009433</v>
       </c>
       <c r="H32" s="2">
+        <v>29704.418414369942</v>
+      </c>
+      <c r="I32" s="2">
         <v>13.227840686989701</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <v>7.7293795450114748</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
+        <v>8.1017938814515382</v>
+      </c>
+      <c r="L32" s="2">
         <v>10.214984943849947</v>
       </c>
-      <c r="K32" s="2">
+      <c r="M32" s="2">
         <v>16.240696430129454</v>
       </c>
-      <c r="L32" s="2">
+      <c r="N32" s="2">
         <v>6.3365886038427393</v>
       </c>
-      <c r="M32" s="2">
+      <c r="O32" s="2">
         <v>9.1221704861802095</v>
       </c>
-      <c r="N32" s="2">
+      <c r="P32" s="2">
+        <v>6.7910592350580083</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>9.412528527845069</v>
+      </c>
+      <c r="R32" s="2">
         <v>16.777040318246826</v>
       </c>
-      <c r="O32" s="2">
+      <c r="S32" s="2">
         <v>10.462080313915564</v>
       </c>
-      <c r="P32" s="2">
+      <c r="T32" s="2">
+        <v>11.9020896917641</v>
+      </c>
+      <c r="U32" s="2">
         <v>12.826152236620509</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="V32" s="2">
         <v>20.727928399873143</v>
       </c>
-      <c r="R32" s="2">
+      <c r="W32" s="2">
         <v>8.6388658599276358</v>
       </c>
-      <c r="S32" s="2">
+      <c r="X32" s="2">
         <v>12.285294767903492</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y32" s="2">
+        <v>10.018148787253095</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>13.786030596275106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>164</v>
       </c>
@@ -2822,43 +3518,64 @@
         <v>29977.147242240892</v>
       </c>
       <c r="H33" s="2">
+        <v>33383.0624409597</v>
+      </c>
+      <c r="I33" s="2">
         <v>12.288247396030537</v>
       </c>
-      <c r="I33" s="2">
+      <c r="J33" s="2">
         <v>10.904353744015784</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
+        <v>17.727977690273473</v>
+      </c>
+      <c r="L33" s="2">
         <v>8.4582874176557237</v>
       </c>
-      <c r="K33" s="2">
+      <c r="M33" s="2">
         <v>16.118207374405351</v>
       </c>
-      <c r="L33" s="2">
+      <c r="N33" s="2">
         <v>9.0404666604484021</v>
       </c>
-      <c r="M33" s="2">
+      <c r="O33" s="2">
         <v>12.768240827583167</v>
       </c>
-      <c r="N33" s="2">
+      <c r="P33" s="2">
+        <v>15.677110519585666</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>19.778844860961282</v>
+      </c>
+      <c r="R33" s="2">
         <v>16.82358551864111</v>
       </c>
-      <c r="O33" s="2">
+      <c r="S33" s="2">
         <v>15.214609349523542</v>
       </c>
-      <c r="P33" s="2">
+      <c r="T33" s="2">
+        <v>24.424766149468869</v>
+      </c>
+      <c r="U33" s="2">
         <v>11.662366242961111</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="V33" s="2">
         <v>21.984804794321107</v>
       </c>
-      <c r="R33" s="2">
+      <c r="W33" s="2">
         <v>12.677404201489695</v>
       </c>
-      <c r="S33" s="2">
+      <c r="X33" s="2">
         <v>17.75181449755739</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y33" s="2">
+        <v>21.805313341201799</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>27.044218957735939</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>165</v>
       </c>
@@ -2875,43 +3592,64 @@
         <v>27927.847357717143</v>
       </c>
       <c r="H34" s="2">
+        <v>31058.641375221643</v>
+      </c>
+      <c r="I34" s="2">
         <v>9.2114153074449678</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J34" s="2">
         <v>5.0647016600984269</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
+        <v>7.2425104975614145</v>
+      </c>
+      <c r="L34" s="2">
         <v>7.9047453880862371</v>
       </c>
-      <c r="K34" s="2">
+      <c r="M34" s="2">
         <v>10.5180852268037</v>
       </c>
-      <c r="L34" s="2">
+      <c r="N34" s="2">
         <v>4.4547156160210735</v>
       </c>
-      <c r="M34" s="2">
+      <c r="O34" s="2">
         <v>5.6746877041757795</v>
       </c>
-      <c r="N34" s="2">
+      <c r="P34" s="2">
+        <v>6.4752566273928212</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>8.0097643677300088</v>
+      </c>
+      <c r="R34" s="2">
         <v>12.464615759642248</v>
       </c>
-      <c r="O34" s="2">
+      <c r="S34" s="2">
         <v>7.1472558598243152</v>
       </c>
-      <c r="P34" s="2">
+      <c r="T34" s="2">
+        <v>10.245973357149365</v>
+      </c>
+      <c r="U34" s="2">
         <v>10.824561345940225</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="V34" s="2">
         <v>14.104670173344273</v>
       </c>
-      <c r="R34" s="2">
+      <c r="W34" s="2">
         <v>6.3228473516203749</v>
       </c>
-      <c r="S34" s="2">
+      <c r="X34" s="2">
         <v>7.9716643680282555</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y34" s="2">
+        <v>9.1834577270865783</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>11.308488987212154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>166</v>
       </c>
@@ -2925,43 +3663,64 @@
         <v>33067.592676396591</v>
       </c>
       <c r="H35" s="2">
+        <v>30828.125239121513</v>
+      </c>
+      <c r="I35" s="2">
         <v>17.427068380680392</v>
       </c>
-      <c r="I35" s="2">
+      <c r="J35" s="2">
         <v>8.5792655630238137</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
+        <v>4.2573848536701435</v>
+      </c>
+      <c r="L35" s="2">
         <v>13.62104843067759</v>
       </c>
-      <c r="K35" s="2">
+      <c r="M35" s="2">
         <v>21.233088330683199</v>
       </c>
-      <c r="L35" s="2">
+      <c r="N35" s="2">
         <v>6.7876939952043722</v>
       </c>
-      <c r="M35" s="2">
+      <c r="O35" s="2">
         <v>10.370837130843254</v>
       </c>
-      <c r="N35" s="2">
+      <c r="P35" s="2">
+        <v>2.9156877726288535</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>5.5990819347114344</v>
+      </c>
+      <c r="R35" s="2">
         <v>22.315501460816758</v>
       </c>
-      <c r="O35" s="2">
+      <c r="S35" s="2">
         <v>11.427840943580584</v>
       </c>
-      <c r="P35" s="2">
+      <c r="T35" s="2">
+        <v>6.3363362167442876</v>
+      </c>
+      <c r="U35" s="2">
         <v>17.917373177725693</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="V35" s="2">
         <v>26.713629743907823</v>
       </c>
-      <c r="R35" s="2">
+      <c r="W35" s="2">
         <v>9.282064186210782</v>
       </c>
-      <c r="S35" s="2">
+      <c r="X35" s="2">
         <v>13.573617700950386</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y35" s="2">
+        <v>4.3800161916061855</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>8.2926562418823888</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>167</v>
       </c>
@@ -2975,43 +3734,64 @@
         <v>29156.808050738058</v>
       </c>
       <c r="H36" s="2">
+        <v>35843.40770841734</v>
+      </c>
+      <c r="I36" s="2">
         <v>6.1248655770614828</v>
       </c>
-      <c r="I36" s="2">
+      <c r="J36" s="2">
         <v>3.7072305919865016</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
+        <v>7.0878041095447459</v>
+      </c>
+      <c r="L36" s="2">
         <v>4.3824396690793899</v>
       </c>
-      <c r="K36" s="2">
+      <c r="M36" s="2">
         <v>7.8672914850435758</v>
       </c>
-      <c r="L36" s="2">
+      <c r="N36" s="2">
         <v>2.5922322636766504</v>
       </c>
-      <c r="M36" s="2">
+      <c r="O36" s="2">
         <v>4.8222289202963537</v>
       </c>
-      <c r="N36" s="2">
+      <c r="P36" s="2">
+        <v>5.3813427398619513</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>8.7942654792275405</v>
+      </c>
+      <c r="R36" s="2">
         <v>9.0089214679372134</v>
       </c>
-      <c r="O36" s="2">
+      <c r="S36" s="2">
         <v>5.2702266470628798</v>
       </c>
-      <c r="P36" s="2">
+      <c r="T36" s="2">
+        <v>10.134010228449704</v>
+      </c>
+      <c r="U36" s="2">
         <v>6.4579821422414225</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="V36" s="2">
         <v>11.559860793633007</v>
       </c>
-      <c r="R36" s="2">
+      <c r="W36" s="2">
         <v>3.7026799935957353</v>
       </c>
-      <c r="S36" s="2">
+      <c r="X36" s="2">
         <v>6.8377733005300243</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y36" s="2">
+        <v>7.6920756026335209</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>12.575944854265886</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>168</v>
       </c>
@@ -3028,43 +3808,64 @@
         <v>23688.111974612726</v>
       </c>
       <c r="H37" s="2">
+        <v>29892.059827576311</v>
+      </c>
+      <c r="I37" s="2">
         <v>3.8199731584244314</v>
       </c>
-      <c r="I37" s="2">
+      <c r="J37" s="2">
         <v>2.7018030372061288</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
+        <v>6.8888644128901264</v>
+      </c>
+      <c r="L37" s="2">
         <v>2.2338190064114984</v>
       </c>
-      <c r="K37" s="2">
+      <c r="M37" s="2">
         <v>5.4061273104373644</v>
       </c>
-      <c r="L37" s="2">
+      <c r="N37" s="2">
         <v>1.8078719539481998</v>
       </c>
-      <c r="M37" s="2">
+      <c r="O37" s="2">
         <v>3.5957341204640585</v>
       </c>
-      <c r="N37" s="2">
+      <c r="P37" s="2">
+        <v>5.2364007300353039</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>8.541328095744948</v>
+      </c>
+      <c r="R37" s="2">
         <v>5.124090001166727</v>
       </c>
-      <c r="O37" s="2">
+      <c r="S37" s="2">
         <v>3.8761523132932623</v>
       </c>
-      <c r="P37" s="2">
+      <c r="T37" s="2">
+        <v>9.5369939324985644</v>
+      </c>
+      <c r="U37" s="2">
         <v>3.0998820471647819</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="V37" s="2">
         <v>7.1482979551686725</v>
       </c>
-      <c r="R37" s="2">
+      <c r="W37" s="2">
         <v>2.6222584164657685</v>
       </c>
-      <c r="S37" s="2">
+      <c r="X37" s="2">
         <v>5.1300462101207565</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y37" s="2">
+        <v>7.3384300573331629</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>11.735557807663964</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>169</v>
       </c>
@@ -3078,43 +3879,64 @@
         <v>22805.1885374134</v>
       </c>
       <c r="H38" s="2">
+        <v>27151.426371008194</v>
+      </c>
+      <c r="I38" s="2">
         <v>18.426650039918695</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>9.3455170380278929</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
+        <v>16.329808130904937</v>
+      </c>
+      <c r="L38" s="2">
         <v>14.178457999158836</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>22.674842080678555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>7.0895587344713187</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>11.601475341584466</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
+        <v>13.628813610558071</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>19.0308026512518</v>
+      </c>
+      <c r="R38" s="2">
         <v>24.391024555596324</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>13.490153294534299</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
+        <v>21.584946241245856</v>
+      </c>
+      <c r="U38" s="2">
         <v>19.036458836876736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="V38" s="2">
         <v>29.745590274315909</v>
       </c>
-      <c r="R38" s="2">
+      <c r="W38" s="2">
         <v>10.421764046332944</v>
       </c>
-      <c r="S38" s="2">
+      <c r="X38" s="2">
         <v>16.558542542735655</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y38" s="2">
+        <v>18.20191986762584</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>24.967972614865872</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>170</v>
       </c>
@@ -3128,43 +3950,64 @@
         <v>28647.418311835743</v>
       </c>
       <c r="H39" s="2">
+        <v>32217.144528951965</v>
+      </c>
+      <c r="I39" s="2">
         <v>4.1087704914003345</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="2">
         <v>3.3324610332745661</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
+        <v>4.3242194086605252</v>
+      </c>
+      <c r="L39" s="2">
         <v>2.8078759686422714</v>
       </c>
-      <c r="K39" s="2">
+      <c r="M39" s="2">
         <v>5.4096650141583975</v>
       </c>
-      <c r="L39" s="2">
+      <c r="N39" s="2">
         <v>2.3927860849417684</v>
       </c>
-      <c r="M39" s="2">
+      <c r="O39" s="2">
         <v>4.2721359816073639</v>
       </c>
-      <c r="N39" s="2">
+      <c r="P39" s="2">
+        <v>3.1308446692407377</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>5.5175941480803115</v>
+      </c>
+      <c r="R39" s="2">
         <v>6.1264095205544198</v>
       </c>
-      <c r="O39" s="2">
+      <c r="S39" s="2">
         <v>4.4565800355208562</v>
       </c>
-      <c r="P39" s="2">
+      <c r="T39" s="2">
+        <v>6.921971045178033</v>
+      </c>
+      <c r="U39" s="2">
         <v>4.2977312838198509</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="V39" s="2">
         <v>7.9550877572889895</v>
       </c>
-      <c r="R39" s="2">
+      <c r="W39" s="2">
         <v>3.158318505094194</v>
       </c>
-      <c r="S39" s="2">
+      <c r="X39" s="2">
         <v>5.7548415659475181</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y39" s="2">
+        <v>4.9219301488104215</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>8.9220119415456427</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>170000000</v>
       </c>
@@ -3181,43 +4024,64 @@
         <v>23314.7467437579</v>
       </c>
       <c r="H40" s="2">
+        <v>26321.1863069674</v>
+      </c>
+      <c r="I40" s="2">
         <v>18.019993603042209</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="2">
         <v>10.497966024662233</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
+        <v>15.043887565644509</v>
+      </c>
+      <c r="L40" s="2">
         <v>14.76680938349041</v>
       </c>
-      <c r="K40" s="2">
+      <c r="M40" s="2">
         <v>21.273177822594008</v>
       </c>
-      <c r="L40" s="2">
+      <c r="N40" s="2">
         <v>9.37026124759503</v>
       </c>
-      <c r="M40" s="2">
+      <c r="O40" s="2">
         <v>11.625670801729438</v>
       </c>
-      <c r="N40" s="2">
+      <c r="P40" s="2">
+        <v>13.780041270360044</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>16.307733860928973</v>
+      </c>
+      <c r="R40" s="2">
         <v>25.226946265049794</v>
       </c>
-      <c r="O40" s="2">
+      <c r="S40" s="2">
         <v>15.081921372061855</v>
       </c>
-      <c r="P40" s="2">
+      <c r="T40" s="2">
+        <v>20.79130728849556</v>
+      </c>
+      <c r="U40" s="2">
         <v>20.982595221825122</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="V40" s="2">
         <v>29.471297308274462</v>
       </c>
-      <c r="R40" s="2">
+      <c r="W40" s="2">
         <v>13.543052722414117</v>
       </c>
-      <c r="S40" s="2">
+      <c r="X40" s="2">
         <v>16.620790021709592</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y40" s="2">
+        <v>19.110251538301569</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>22.472363038689551</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>171</v>
       </c>
@@ -3234,43 +4098,64 @@
         <v>24054.115913233367</v>
       </c>
       <c r="H41" s="2">
+        <v>26958.642012224187</v>
+      </c>
+      <c r="I41" s="2">
         <v>12.464092722549573</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <v>9.9547207490862117</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
+        <v>15.642179610084819</v>
+      </c>
+      <c r="L41" s="2">
         <v>6.4819364279691705</v>
       </c>
-      <c r="K41" s="2">
+      <c r="M41" s="2">
         <v>18.446249017129976</v>
       </c>
-      <c r="L41" s="2">
+      <c r="N41" s="2">
         <v>8.2209648484658224</v>
       </c>
-      <c r="M41" s="2">
+      <c r="O41" s="2">
         <v>11.688476649706599</v>
       </c>
-      <c r="N41" s="2">
+      <c r="P41" s="2">
+        <v>13.562055961950032</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>17.722303258219608</v>
+      </c>
+      <c r="R41" s="2">
         <v>16.945829088381512</v>
       </c>
-      <c r="O41" s="2">
+      <c r="S41" s="2">
         <v>14.724227514195931</v>
       </c>
-      <c r="P41" s="2">
+      <c r="T41" s="2">
+        <v>22.069725064659359</v>
+      </c>
+      <c r="U41" s="2">
         <v>9.4457601598945864</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="V41" s="2">
         <v>24.445898016868437</v>
       </c>
-      <c r="R41" s="2">
+      <c r="W41" s="2">
         <v>12.296098103640011</v>
       </c>
-      <c r="S41" s="2">
+      <c r="X41" s="2">
         <v>17.152356924751853</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y41" s="2">
+        <v>19.218204107890955</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>24.921246021427766</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>172</v>
       </c>
@@ -3287,43 +4172,64 @@
         <v>21340.739027557513</v>
       </c>
       <c r="H42" s="2">
+        <v>26661.287980330151</v>
+      </c>
+      <c r="I42" s="2">
         <v>30.504643751152045</v>
       </c>
-      <c r="I42" s="2">
+      <c r="J42" s="2">
         <v>16.057964930059981</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
+        <v>22.960909461727805</v>
+      </c>
+      <c r="L42" s="2">
         <v>19.534391488955393</v>
       </c>
-      <c r="K42" s="2">
+      <c r="M42" s="2">
         <v>41.474896013348697</v>
       </c>
-      <c r="L42" s="2">
+      <c r="N42" s="2">
         <v>12.592215004702654</v>
       </c>
-      <c r="M42" s="2">
+      <c r="O42" s="2">
         <v>19.52371485541731</v>
       </c>
-      <c r="N42" s="2">
+      <c r="P42" s="2">
+        <v>19.705434312154583</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>26.216384611301024</v>
+      </c>
+      <c r="R42" s="2">
         <v>41.664795646016572</v>
       </c>
-      <c r="O42" s="2">
+      <c r="S42" s="2">
         <v>21.748092690670656</v>
       </c>
-      <c r="P42" s="2">
+      <c r="T42" s="2">
+        <v>30.266064778385111</v>
+      </c>
+      <c r="U42" s="2">
         <v>28.864316473543251</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="V42" s="2">
         <v>54.465274818489895</v>
       </c>
-      <c r="R42" s="2">
+      <c r="W42" s="2">
         <v>17.397472300901789</v>
       </c>
-      <c r="S42" s="2">
+      <c r="X42" s="2">
         <v>26.098713080439524</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y42" s="2">
+        <v>26.428502214817794</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>34.103627341952425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>173</v>
       </c>
@@ -3340,43 +4246,64 @@
         <v>24470.45509730879</v>
       </c>
       <c r="H43" s="2">
+        <v>26265.25192989983</v>
+      </c>
+      <c r="I43" s="2">
         <v>15.302187482446646</v>
       </c>
-      <c r="I43" s="2">
+      <c r="J43" s="2">
         <v>7.3019635187090621</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
+        <v>12.764305901121045</v>
+      </c>
+      <c r="L43" s="2">
         <v>10.171406960329561</v>
       </c>
-      <c r="K43" s="2">
+      <c r="M43" s="2">
         <v>20.432968004563733</v>
       </c>
-      <c r="L43" s="2">
+      <c r="N43" s="2">
         <v>5.0227738799026422</v>
       </c>
-      <c r="M43" s="2">
+      <c r="O43" s="2">
         <v>9.581153157515482</v>
       </c>
-      <c r="N43" s="2">
+      <c r="P43" s="2">
+        <v>9.6680160806204949</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>15.860595721621596</v>
+      </c>
+      <c r="R43" s="2">
         <v>22.352558561793987</v>
       </c>
-      <c r="O43" s="2">
+      <c r="S43" s="2">
         <v>10.810249638661439</v>
       </c>
-      <c r="P43" s="2">
+      <c r="T43" s="2">
+        <v>18.144780583490654</v>
+      </c>
+      <c r="U43" s="2">
         <v>15.510869264651056</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="V43" s="2">
         <v>29.194247858936919</v>
       </c>
-      <c r="R43" s="2">
+      <c r="W43" s="2">
         <v>7.6387278034084254</v>
       </c>
-      <c r="S43" s="2">
+      <c r="X43" s="2">
         <v>13.981771473914451</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y43" s="2">
+        <v>14.072924773373463</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>22.216636393607843</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>174</v>
       </c>
@@ -3393,43 +4320,64 @@
         <v>23424.664703444188</v>
       </c>
       <c r="H44" s="2">
+        <v>24126.593781856111</v>
+      </c>
+      <c r="I44" s="2">
         <v>12.608530433357357</v>
       </c>
-      <c r="I44" s="2">
+      <c r="J44" s="2">
         <v>8.2120286463315182</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
+        <v>9.3997714412910316</v>
+      </c>
+      <c r="L44" s="2">
         <v>8.0584703751181124</v>
       </c>
-      <c r="K44" s="2">
+      <c r="M44" s="2">
         <v>17.158590491596602</v>
       </c>
-      <c r="L44" s="2">
+      <c r="N44" s="2">
         <v>6.490120814961303</v>
       </c>
-      <c r="M44" s="2">
+      <c r="O44" s="2">
         <v>9.9339364777017316</v>
       </c>
-      <c r="N44" s="2">
+      <c r="P44" s="2">
+        <v>7.7067840501356653</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>11.092758832446398</v>
+      </c>
+      <c r="R44" s="2">
         <v>17.596498403875323</v>
       </c>
-      <c r="O44" s="2">
+      <c r="S44" s="2">
         <v>12.137085822638745</v>
       </c>
-      <c r="P44" s="2">
+      <c r="T44" s="2">
+        <v>13.768894793586819</v>
+      </c>
+      <c r="U44" s="2">
         <v>11.5141698000081</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="V44" s="2">
         <v>23.678827007742548</v>
       </c>
-      <c r="R44" s="2">
+      <c r="W44" s="2">
         <v>9.7093096881887746</v>
       </c>
-      <c r="S44" s="2">
+      <c r="X44" s="2">
         <v>14.564861957088718</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y44" s="2">
+        <v>11.335352023791861</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>16.202437563381778</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>175</v>
       </c>
@@ -3443,43 +4391,64 @@
         <v>24087.252981856498</v>
       </c>
       <c r="H45" s="2">
+        <v>28748.983160790318</v>
+      </c>
+      <c r="I45" s="2">
         <v>29.250611062246605</v>
       </c>
-      <c r="I45" s="2">
+      <c r="J45" s="2">
         <v>19.693823742978843</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
+        <v>31.030488871888771</v>
+      </c>
+      <c r="L45" s="2">
         <v>21.648766208594257</v>
       </c>
-      <c r="K45" s="2">
+      <c r="M45" s="2">
         <v>36.852455915898958</v>
       </c>
-      <c r="L45" s="2">
+      <c r="N45" s="2">
         <v>16.849477507501945</v>
       </c>
-      <c r="M45" s="2">
+      <c r="O45" s="2">
         <v>22.538169978455738</v>
       </c>
-      <c r="N45" s="2">
+      <c r="P45" s="2">
+        <v>28.084952051846685</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>33.976025691930865</v>
+      </c>
+      <c r="R45" s="2">
         <v>38.628201430202928</v>
       </c>
-      <c r="O45" s="2">
+      <c r="S45" s="2">
         <v>28.280743821077198</v>
       </c>
-      <c r="P45" s="2">
+      <c r="T45" s="2">
+        <v>40.109561132865124</v>
+      </c>
+      <c r="U45" s="2">
         <v>30.406711450692704</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="V45" s="2">
         <v>46.849691409713159</v>
       </c>
-      <c r="R45" s="2">
+      <c r="W45" s="2">
         <v>24.436631506522822</v>
       </c>
-      <c r="S45" s="2">
+      <c r="X45" s="2">
         <v>32.124856135631575</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y45" s="2">
+        <v>36.573937135220191</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>43.645185130510058</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>176</v>
       </c>
@@ -3496,43 +4465,64 @@
         <v>24461.023379533483</v>
       </c>
       <c r="H46" s="2">
+        <v>27675.25733926507</v>
+      </c>
+      <c r="I46" s="2">
         <v>31.008125152025578</v>
       </c>
-      <c r="I46" s="2">
+      <c r="J46" s="2">
         <v>20.017291058695683</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
+        <v>21.933079843818735</v>
+      </c>
+      <c r="L46" s="2">
         <v>28.228016189372095</v>
       </c>
-      <c r="K46" s="2">
+      <c r="M46" s="2">
         <v>33.788234114679064</v>
       </c>
-      <c r="L46" s="2">
+      <c r="N46" s="2">
         <v>18.697166162315835</v>
       </c>
-      <c r="M46" s="2">
+      <c r="O46" s="2">
         <v>21.337415955075532</v>
       </c>
-      <c r="N46" s="2">
+      <c r="P46" s="2">
+        <v>20.497187692990799</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>23.368971994646671</v>
+      </c>
+      <c r="R46" s="2">
         <v>39.846744305857001</v>
       </c>
-      <c r="O46" s="2">
+      <c r="S46" s="2">
         <v>26.989327013395929</v>
       </c>
-      <c r="P46" s="2">
+      <c r="T46" s="2">
+        <v>29.312438215035574</v>
+      </c>
+      <c r="U46" s="2">
         <v>36.764095300018596</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="V46" s="2">
         <v>42.929393311695407</v>
       </c>
-      <c r="R46" s="2">
+      <c r="W46" s="2">
         <v>25.329025202507978</v>
       </c>
-      <c r="S46" s="2">
+      <c r="X46" s="2">
         <v>28.649628824283884</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y46" s="2">
+        <v>27.574577022720259</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>31.050299407350892</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>177</v>
       </c>
@@ -3546,43 +4536,64 @@
         <v>24902.237105804677</v>
       </c>
       <c r="H47" s="2">
+        <v>27346.297754038165</v>
+      </c>
+      <c r="I47" s="2">
         <v>18.478862157950068</v>
       </c>
-      <c r="I47" s="2">
+      <c r="J47" s="2">
         <v>14.955255038530224</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
+        <v>15.428778592376707</v>
+      </c>
+      <c r="L47" s="2">
         <v>14.625373273295372</v>
       </c>
-      <c r="K47" s="2">
+      <c r="M47" s="2">
         <v>22.332351042604763</v>
       </c>
-      <c r="L47" s="2">
+      <c r="N47" s="2">
         <v>12.524842250987451</v>
       </c>
-      <c r="M47" s="2">
+      <c r="O47" s="2">
         <v>17.385667826072996</v>
       </c>
-      <c r="N47" s="2">
+      <c r="P47" s="2">
+        <v>12.85456975275641</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>18.002987431997006</v>
+      </c>
+      <c r="R47" s="2">
         <v>26.202655218629427</v>
       </c>
-      <c r="O47" s="2">
+      <c r="S47" s="2">
         <v>21.169192645921619</v>
       </c>
-      <c r="P47" s="2">
+      <c r="T47" s="2">
+        <v>20.409355597907521</v>
+      </c>
+      <c r="U47" s="2">
         <v>20.820650461999584</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="V47" s="2">
         <v>31.584659975259271</v>
       </c>
-      <c r="R47" s="2">
+      <c r="W47" s="2">
         <v>17.775478626139858</v>
       </c>
-      <c r="S47" s="2">
+      <c r="X47" s="2">
         <v>24.562906665703384</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y47" s="2">
+        <v>17.058534389899904</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>23.76017680591514</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>178</v>
       </c>
@@ -3596,43 +4607,64 @@
         <v>25051.117029555633</v>
       </c>
       <c r="H48" s="2">
+        <v>27571.261112104272</v>
+      </c>
+      <c r="I48" s="2">
         <v>35.110813294040625</v>
       </c>
-      <c r="I48" s="2">
+      <c r="J48" s="2">
         <v>22.412669303740486</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
+        <v>16.56877806337204</v>
+      </c>
+      <c r="L48" s="2">
         <v>26.769112245595249</v>
       </c>
-      <c r="K48" s="2">
+      <c r="M48" s="2">
         <v>43.452514342485991</v>
       </c>
-      <c r="L48" s="2">
+      <c r="N48" s="2">
         <v>19.78506575478352</v>
       </c>
-      <c r="M48" s="2">
+      <c r="O48" s="2">
         <v>25.040272852697456</v>
       </c>
-      <c r="N48" s="2">
+      <c r="P48" s="2">
+        <v>13.889508037674911</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>19.248048089069172</v>
+      </c>
+      <c r="R48" s="2">
         <v>43.555284218365038</v>
       </c>
-      <c r="O48" s="2">
+      <c r="S48" s="2">
         <v>30.473308500025027</v>
       </c>
-      <c r="P48" s="2">
+      <c r="T48" s="2">
+        <v>22.248775857132777</v>
+      </c>
+      <c r="U48" s="2">
         <v>34.467071662598428</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="V48" s="2">
         <v>52.643496774131634</v>
       </c>
-      <c r="R48" s="2">
+      <c r="W48" s="2">
         <v>27.522931777887312</v>
       </c>
-      <c r="S48" s="2">
+      <c r="X48" s="2">
         <v>33.423685222162739</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y48" s="2">
+        <v>19.224721553551156</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>25.272830160714399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>179</v>
       </c>
@@ -3646,43 +4678,64 @@
         <v>24270.841891053482</v>
       </c>
       <c r="H49" s="2">
+        <v>28650.841611512893</v>
+      </c>
+      <c r="I49" s="2">
         <v>28.521369016820653</v>
       </c>
-      <c r="I49" s="2">
+      <c r="J49" s="2">
         <v>20.95204568647101</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
+        <v>29.793240824762091</v>
+      </c>
+      <c r="L49" s="2">
         <v>24.03749369514847</v>
       </c>
-      <c r="K49" s="2">
+      <c r="M49" s="2">
         <v>33.005244338492837</v>
       </c>
-      <c r="L49" s="2">
+      <c r="N49" s="2">
         <v>17.947164254338936</v>
       </c>
-      <c r="M49" s="2">
+      <c r="O49" s="2">
         <v>23.956927118603087</v>
       </c>
-      <c r="N49" s="2">
+      <c r="P49" s="2">
+        <v>26.334111299897351</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>33.25237034962683</v>
+      </c>
+      <c r="R49" s="2">
         <v>36.80567547979885</v>
       </c>
-      <c r="O49" s="2">
+      <c r="S49" s="2">
         <v>28.41318130276958</v>
       </c>
-      <c r="P49" s="2">
+      <c r="T49" s="2">
+        <v>38.701589486342932</v>
+      </c>
+      <c r="U49" s="2">
         <v>31.948468210136248</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="V49" s="2">
         <v>41.662882749461453</v>
       </c>
-      <c r="R49" s="2">
+      <c r="W49" s="2">
         <v>24.698709499010512</v>
       </c>
-      <c r="S49" s="2">
+      <c r="X49" s="2">
         <v>32.127653106528648</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y49" s="2">
+        <v>34.816131532903007</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>42.587047439782857</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>180</v>
       </c>
@@ -3696,43 +4749,64 @@
         <v>24379.554093266124</v>
       </c>
       <c r="H50" s="2">
+        <v>28014.305560122964</v>
+      </c>
+      <c r="I50" s="2">
         <v>33.610567707515465</v>
       </c>
-      <c r="I50" s="2">
+      <c r="J50" s="2">
         <v>14.39111129533231</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K50" s="2">
+        <v>16.809502039565857</v>
+      </c>
+      <c r="L50" s="2">
         <v>26.805153967285417</v>
       </c>
-      <c r="K50" s="2">
+      <c r="M50" s="2">
         <v>40.415981447745516</v>
       </c>
-      <c r="L50" s="2">
+      <c r="N50" s="2">
         <v>12.341907530479897</v>
       </c>
-      <c r="M50" s="2">
+      <c r="O50" s="2">
         <v>16.440315060184719</v>
       </c>
-      <c r="N50" s="2">
+      <c r="P50" s="2">
+        <v>14.39544102749003</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>19.223563051641683</v>
+      </c>
+      <c r="R50" s="2">
         <v>43.3584929370708</v>
       </c>
-      <c r="O50" s="2">
+      <c r="S50" s="2">
         <v>20.300806025930278</v>
       </c>
-      <c r="P50" s="2">
+      <c r="T50" s="2">
+        <v>23.545734373966294</v>
+      </c>
+      <c r="U50" s="2">
         <v>37.08647899908366</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="V50" s="2">
         <v>49.630506875057947</v>
       </c>
-      <c r="R50" s="2">
+      <c r="W50" s="2">
         <v>17.397775229260155</v>
       </c>
-      <c r="S50" s="2">
+      <c r="X50" s="2">
         <v>23.203836822600401</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y50" s="2">
+        <v>20.289800765802006</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>26.801667982130578</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>181</v>
       </c>
@@ -3746,43 +4820,64 @@
         <v>22911.260300010184</v>
       </c>
       <c r="H51" s="2">
+        <v>25544.851965022859</v>
+      </c>
+      <c r="I51" s="2">
         <v>35.528277929902018</v>
       </c>
-      <c r="I51" s="2">
+      <c r="J51" s="2">
         <v>25.794145922784995</v>
       </c>
-      <c r="J51" s="2">
+      <c r="K51" s="2">
+        <v>20.183294381534647</v>
+      </c>
+      <c r="L51" s="2">
         <v>29.086201843857268</v>
       </c>
-      <c r="K51" s="2">
+      <c r="M51" s="2">
         <v>41.970354015946768</v>
       </c>
-      <c r="L51" s="2">
+      <c r="N51" s="2">
         <v>22.624579453844007</v>
       </c>
-      <c r="M51" s="2">
+      <c r="O51" s="2">
         <v>28.963712391725981</v>
       </c>
-      <c r="N51" s="2">
+      <c r="P51" s="2">
+        <v>17.299339656477581</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>23.06724910659171</v>
+      </c>
+      <c r="R51" s="2">
         <v>45.442448487533582</v>
       </c>
-      <c r="O51" s="2">
+      <c r="S51" s="2">
         <v>32.952063908270539</v>
       </c>
-      <c r="P51" s="2">
+      <c r="T51" s="2">
+        <v>27.73612216287794</v>
+      </c>
+      <c r="U51" s="2">
         <v>38.217896702539733</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="V51" s="2">
         <v>52.667000272527432</v>
       </c>
-      <c r="R51" s="2">
+      <c r="W51" s="2">
         <v>29.23918976120234</v>
       </c>
-      <c r="S51" s="2">
+      <c r="X51" s="2">
         <v>36.664938055338745</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y51" s="2">
+        <v>24.134170410166334</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>31.338073915589547</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>182</v>
       </c>
@@ -3796,43 +4891,64 @@
         <v>26069.473023844519</v>
       </c>
       <c r="H52" s="2">
+        <v>27132.7368350939</v>
+      </c>
+      <c r="I52" s="2">
         <v>46.22038182999826</v>
       </c>
-      <c r="I52" s="2">
+      <c r="J52" s="2">
         <v>19.575939730134479</v>
       </c>
-      <c r="J52" s="2">
+      <c r="K52" s="2">
+        <v>21.739674633558106</v>
+      </c>
+      <c r="L52" s="2">
         <v>38.20049855941641</v>
       </c>
-      <c r="K52" s="2">
+      <c r="M52" s="2">
         <v>54.24026510058011</v>
       </c>
-      <c r="L52" s="2">
+      <c r="N52" s="2">
         <v>16.962811828290761</v>
       </c>
-      <c r="M52" s="2">
+      <c r="O52" s="2">
         <v>22.189067631978197</v>
       </c>
-      <c r="N52" s="2">
+      <c r="P52" s="2">
+        <v>18.951633837744126</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>24.527715429372087</v>
+      </c>
+      <c r="R52" s="2">
         <v>56.868912085274445</v>
       </c>
-      <c r="O52" s="2">
+      <c r="S52" s="2">
         <v>26.097798327154329</v>
       </c>
-      <c r="P52" s="2">
+      <c r="T52" s="2">
+        <v>29.972447234266074</v>
+      </c>
+      <c r="U52" s="2">
         <v>48.687062077817309</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="V52" s="2">
         <v>65.050762092731588</v>
       </c>
-      <c r="R52" s="2">
+      <c r="W52" s="2">
         <v>22.988879042958864</v>
       </c>
-      <c r="S52" s="2">
+      <c r="X52" s="2">
         <v>29.206717611349799</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y52" s="2">
+        <v>26.299543526763518</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>33.645350941768633</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>183</v>
       </c>
@@ -3849,43 +4965,64 @@
         <v>24494.368645648799</v>
       </c>
       <c r="H53" s="2">
+        <v>27083.231683885111</v>
+      </c>
+      <c r="I53" s="2">
         <v>18.472899260132355</v>
       </c>
-      <c r="I53" s="2">
+      <c r="J53" s="2">
         <v>11.915299203713813</v>
       </c>
-      <c r="J53" s="2">
+      <c r="K53" s="2">
+        <v>13.834788739857062</v>
+      </c>
+      <c r="L53" s="2">
         <v>16.162328024345328</v>
       </c>
-      <c r="K53" s="2">
+      <c r="M53" s="2">
         <v>20.783470495919381</v>
       </c>
-      <c r="L53" s="2">
+      <c r="N53" s="2">
         <v>10.707871924139075</v>
       </c>
-      <c r="M53" s="2">
+      <c r="O53" s="2">
         <v>13.122726483288549</v>
       </c>
-      <c r="N53" s="2">
+      <c r="P53" s="2">
+        <v>12.621129071339048</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>15.048448408375076</v>
+      </c>
+      <c r="R53" s="2">
         <v>24.5984152846024</v>
       </c>
-      <c r="O53" s="2">
+      <c r="S53" s="2">
         <v>16.317705574285103</v>
       </c>
-      <c r="P53" s="2">
+      <c r="T53" s="2">
+        <v>19.028816084798926</v>
+      </c>
+      <c r="U53" s="2">
         <v>21.678696927698127</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="V53" s="2">
         <v>27.518133641506669</v>
       </c>
-      <c r="R53" s="2">
+      <c r="W53" s="2">
         <v>14.76726289455223</v>
       </c>
-      <c r="S53" s="2">
+      <c r="X53" s="2">
         <v>17.868148254017974</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y53" s="2">
+        <v>17.432552100996215</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>20.625080068601633</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>184</v>
       </c>
@@ -3902,43 +5039,64 @@
         <v>23745.007468619489</v>
       </c>
       <c r="H54" s="2">
+        <v>26836.61747739491</v>
+      </c>
+      <c r="I54" s="2">
         <v>11.97521345998628</v>
       </c>
-      <c r="I54" s="2">
+      <c r="J54" s="2">
         <v>8.7552217181376832</v>
       </c>
-      <c r="J54" s="2">
+      <c r="K54" s="2">
+        <v>13.931082283714849</v>
+      </c>
+      <c r="L54" s="2">
         <v>6.1032375485901031</v>
       </c>
-      <c r="K54" s="2">
+      <c r="M54" s="2">
         <v>17.847189371382459</v>
       </c>
-      <c r="L54" s="2">
+      <c r="N54" s="2">
         <v>6.7352357866540427</v>
       </c>
-      <c r="M54" s="2">
+      <c r="O54" s="2">
         <v>10.775207649621324</v>
       </c>
-      <c r="N54" s="2">
+      <c r="P54" s="2">
+        <v>11.144786121500626</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>16.717378445929072</v>
+      </c>
+      <c r="R54" s="2">
         <v>16.083446612495646</v>
       </c>
-      <c r="O54" s="2">
+      <c r="S54" s="2">
         <v>12.13363437213035</v>
       </c>
-      <c r="P54" s="2">
+      <c r="T54" s="2">
+        <v>20.17845092811821</v>
+      </c>
+      <c r="U54" s="2">
         <v>7.659729370945759</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="V54" s="2">
         <v>24.50716385404553</v>
       </c>
-      <c r="R54" s="2">
+      <c r="W54" s="2">
         <v>9.5304035504479856</v>
       </c>
-      <c r="S54" s="2">
+      <c r="X54" s="2">
         <v>14.736865193812715</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y54" s="2">
+        <v>16.307209256800927</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>24.049692599435492</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>185</v>
       </c>
@@ -3955,43 +5113,64 @@
         <v>24022.717043483484</v>
       </c>
       <c r="H55" s="2">
+        <v>26633.4923740292</v>
+      </c>
+      <c r="I55" s="2">
         <v>18.400908919404763</v>
       </c>
-      <c r="I55" s="2">
+      <c r="J55" s="2">
         <v>12.928696960357334</v>
       </c>
-      <c r="J55" s="2">
+      <c r="K55" s="2">
+        <v>18.246332106756256</v>
+      </c>
+      <c r="L55" s="2">
         <v>9.2078200329761763</v>
       </c>
-      <c r="K55" s="2">
+      <c r="M55" s="2">
         <v>27.593997805833347</v>
       </c>
-      <c r="L55" s="2">
+      <c r="N55" s="2">
         <v>10.701340514947786</v>
       </c>
-      <c r="M55" s="2">
+      <c r="O55" s="2">
         <v>15.156053405766878</v>
       </c>
-      <c r="N55" s="2">
+      <c r="P55" s="2">
+        <v>15.353452295728115</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>21.139211917784394</v>
+      </c>
+      <c r="R55" s="2">
         <v>26.029473107323348</v>
       </c>
-      <c r="O55" s="2">
+      <c r="S55" s="2">
         <v>19.130863697821617</v>
       </c>
-      <c r="P55" s="2">
+      <c r="T55" s="2">
+        <v>23.683232438912128</v>
+      </c>
+      <c r="U55" s="2">
         <v>13.451488917538907</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="V55" s="2">
         <v>38.607457297107786</v>
       </c>
-      <c r="R55" s="2">
+      <c r="W55" s="2">
         <v>15.951976049603262</v>
       </c>
-      <c r="S55" s="2">
+      <c r="X55" s="2">
         <v>22.309751346039974</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y55" s="2">
+        <v>20.069807897981313</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>27.296656979842936</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>186</v>
       </c>
@@ -4008,43 +5187,64 @@
         <v>22668.50713686072</v>
       </c>
       <c r="H56" s="2">
+        <v>26691.531583683125</v>
+      </c>
+      <c r="I56" s="2">
         <v>6.994361128858503</v>
       </c>
-      <c r="I56" s="2">
+      <c r="J56" s="2">
         <v>4.1093065993773745</v>
       </c>
-      <c r="J56" s="2">
+      <c r="K56" s="2">
+        <v>6.0859289136199841</v>
+      </c>
+      <c r="L56" s="2">
         <v>1.9955276044070256</v>
       </c>
-      <c r="K56" s="2">
+      <c r="M56" s="2">
         <v>11.993194653309981</v>
       </c>
-      <c r="L56" s="2">
+      <c r="N56" s="2">
         <v>3.0905974228351019</v>
       </c>
-      <c r="M56" s="2">
+      <c r="O56" s="2">
         <v>5.1280157759196463</v>
       </c>
-      <c r="N56" s="2">
+      <c r="P56" s="2">
+        <v>4.3869655955352487</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>7.7848922317047196</v>
+      </c>
+      <c r="R56" s="2">
         <v>11.717384635308797</v>
       </c>
-      <c r="O56" s="2">
+      <c r="S56" s="2">
         <v>6.163313719633341</v>
       </c>
-      <c r="P56" s="2">
+      <c r="T56" s="2">
+        <v>9.4810226043472152</v>
+      </c>
+      <c r="U56" s="2">
         <v>3.7460029465713252</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="V56" s="2">
         <v>19.68876632404627</v>
       </c>
-      <c r="R56" s="2">
+      <c r="W56" s="2">
         <v>4.6506624015515534</v>
       </c>
-      <c r="S56" s="2">
+      <c r="X56" s="2">
         <v>7.6759650377151267</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y56" s="2">
+        <v>6.9726274348443154</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>11.989417773850116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>187</v>
       </c>
@@ -4064,43 +5264,64 @@
         <v>25898.652059170166</v>
       </c>
       <c r="H57" s="2">
+        <v>27089.71167225402</v>
+      </c>
+      <c r="I57" s="2">
         <v>4.8387096774193488</v>
       </c>
-      <c r="I57" s="2">
+      <c r="J57" s="2">
         <v>6.7912341705635271</v>
       </c>
-      <c r="J57" s="2">
+      <c r="K57" s="2">
+        <v>7.3343614524084026</v>
+      </c>
+      <c r="L57" s="2">
         <v>0</v>
       </c>
-      <c r="K57" s="2">
+      <c r="M57" s="2">
         <v>11.329575813065173</v>
       </c>
-      <c r="L57" s="2">
+      <c r="N57" s="2">
         <v>4.6911262818757367</v>
       </c>
-      <c r="M57" s="2">
+      <c r="O57" s="2">
         <v>8.8913420592513184</v>
       </c>
-      <c r="N57" s="2">
+      <c r="P57" s="2">
+        <v>5.6996039907584546</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>8.9691189140583507</v>
+      </c>
+      <c r="R57" s="2">
         <v>5.2202283582545741</v>
       </c>
-      <c r="O57" s="2">
+      <c r="S57" s="2">
         <v>9.4874229402792469</v>
       </c>
-      <c r="P57" s="2">
+      <c r="T57" s="2">
+        <v>10.019673998872843</v>
+      </c>
+      <c r="U57" s="2">
         <v>0</v>
       </c>
-      <c r="Q57" s="2">
+      <c r="V57" s="2">
         <v>12.773723347080706</v>
       </c>
-      <c r="R57" s="2">
+      <c r="W57" s="2">
         <v>6.4169280223119154</v>
       </c>
-      <c r="S57" s="2">
+      <c r="X57" s="2">
         <v>12.557917858246578</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y57" s="2">
+        <v>7.7724371078506493</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>12.266910889895035</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>188</v>
       </c>
@@ -4114,43 +5335,64 @@
         <v>26112.952971586437</v>
       </c>
       <c r="H58" s="2">
+        <v>27821.447530098078</v>
+      </c>
+      <c r="I58" s="2">
         <v>16.449620319663186</v>
       </c>
-      <c r="I58" s="2">
+      <c r="J58" s="2">
         <v>12.082790674987763</v>
       </c>
-      <c r="J58" s="2">
+      <c r="K58" s="2">
+        <v>12.622316733537239</v>
+      </c>
+      <c r="L58" s="2">
         <v>13.113135650670902</v>
       </c>
-      <c r="K58" s="2">
+      <c r="M58" s="2">
         <v>19.78610498865547</v>
       </c>
-      <c r="L58" s="2">
+      <c r="N58" s="2">
         <v>10.243645203268082</v>
       </c>
-      <c r="M58" s="2">
+      <c r="O58" s="2">
         <v>13.921936146707441</v>
       </c>
-      <c r="N58" s="2">
+      <c r="P58" s="2">
+        <v>10.330308688114215</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>14.914324778960264</v>
+      </c>
+      <c r="R58" s="2">
         <v>22.028219642127109</v>
       </c>
-      <c r="O58" s="2">
+      <c r="S58" s="2">
         <v>16.489102104762722</v>
       </c>
-      <c r="P58" s="2">
+      <c r="T58" s="2">
+        <v>17.846525904807265</v>
+      </c>
+      <c r="U58" s="2">
         <v>17.717484946451965</v>
       </c>
-      <c r="Q58" s="2">
+      <c r="V58" s="2">
         <v>26.338954337802257</v>
       </c>
-      <c r="R58" s="2">
+      <c r="W58" s="2">
         <v>13.977180309601453</v>
       </c>
-      <c r="S58" s="2">
+      <c r="X58" s="2">
         <v>19.00102389992399</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y58" s="2">
+        <v>14.794078197850816</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>20.898973611763711</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>189</v>
       </c>
@@ -4164,43 +5406,64 @@
         <v>23691.566871894647</v>
       </c>
       <c r="H59" s="2">
+        <v>26782.455991550418</v>
+      </c>
+      <c r="I59" s="2">
         <v>25.464660172951714</v>
       </c>
-      <c r="I59" s="2">
+      <c r="J59" s="2">
         <v>14.527082665709608</v>
       </c>
-      <c r="J59" s="2">
+      <c r="K59" s="2">
+        <v>16.37896316930755</v>
+      </c>
+      <c r="L59" s="2">
         <v>21.340000370202461</v>
       </c>
-      <c r="K59" s="2">
+      <c r="M59" s="2">
         <v>29.589319975700967</v>
       </c>
-      <c r="L59" s="2">
+      <c r="N59" s="2">
         <v>12.010125305656999</v>
       </c>
-      <c r="M59" s="2">
+      <c r="O59" s="2">
         <v>17.044040025762218</v>
       </c>
-      <c r="N59" s="2">
+      <c r="P59" s="2">
+        <v>14.1314922171848</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>18.6264341214303</v>
+      </c>
+      <c r="R59" s="2">
         <v>32.961208468658292</v>
       </c>
-      <c r="O59" s="2">
+      <c r="S59" s="2">
         <v>19.379900230473485</v>
       </c>
-      <c r="P59" s="2">
+      <c r="T59" s="2">
+        <v>21.80629806897015</v>
+      </c>
+      <c r="U59" s="2">
         <v>28.079022015910649</v>
       </c>
-      <c r="Q59" s="2">
+      <c r="V59" s="2">
         <v>37.843394921405938</v>
       </c>
-      <c r="R59" s="2">
+      <c r="W59" s="2">
         <v>16.245381462137303</v>
       </c>
-      <c r="S59" s="2">
+      <c r="X59" s="2">
         <v>22.514418998809667</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y59" s="2">
+        <v>18.918083626338781</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>24.69451251160152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>190</v>
       </c>
@@ -4217,43 +5480,64 @@
         <v>25744.79602622092</v>
       </c>
       <c r="H60" s="2">
+        <v>31219.821174154677</v>
+      </c>
+      <c r="I60" s="2">
         <v>24.903090153408318</v>
       </c>
-      <c r="I60" s="2">
+      <c r="J60" s="2">
         <v>13.383926633255921</v>
       </c>
-      <c r="J60" s="2">
+      <c r="K60" s="2">
+        <v>22.06541178283852</v>
+      </c>
+      <c r="L60" s="2">
         <v>22.518132451377937</v>
       </c>
-      <c r="K60" s="2">
+      <c r="M60" s="2">
         <v>27.288047855438702</v>
       </c>
-      <c r="L60" s="2">
+      <c r="N60" s="2">
         <v>12.035741757645303</v>
       </c>
-      <c r="M60" s="2">
+      <c r="O60" s="2">
         <v>14.732111508866538</v>
       </c>
-      <c r="N60" s="2">
+      <c r="P60" s="2">
+        <v>20.221724351442766</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>23.909099214234274</v>
+      </c>
+      <c r="R60" s="2">
         <v>29.355726789507226</v>
       </c>
-      <c r="O60" s="2">
+      <c r="S60" s="2">
         <v>17.696226961210641</v>
       </c>
-      <c r="P60" s="2">
+      <c r="T60" s="2">
+        <v>27.57623708342825</v>
+      </c>
+      <c r="U60" s="2">
         <v>26.67960865159144</v>
       </c>
-      <c r="Q60" s="2">
+      <c r="V60" s="2">
         <v>32.031844927423009</v>
       </c>
-      <c r="R60" s="2">
+      <c r="W60" s="2">
         <v>16.036396817746962</v>
       </c>
-      <c r="S60" s="2">
+      <c r="X60" s="2">
         <v>19.356057104674317</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y60" s="2">
+        <v>25.466336216167395</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>29.686137950689108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>191</v>
       </c>
@@ -4267,43 +5551,64 @@
         <v>26108.466744865691</v>
       </c>
       <c r="H61" s="2">
+        <v>26852.995759018289</v>
+      </c>
+      <c r="I61" s="2">
         <v>25.179322756093509</v>
       </c>
-      <c r="I61" s="2">
+      <c r="J61" s="2">
         <v>15.457156572711689</v>
       </c>
-      <c r="J61" s="2">
+      <c r="K61" s="2">
+        <v>19.09425189363153</v>
+      </c>
+      <c r="L61" s="2">
         <v>19.941039878403117</v>
       </c>
-      <c r="K61" s="2">
+      <c r="M61" s="2">
         <v>30.4176056337839</v>
       </c>
-      <c r="L61" s="2">
+      <c r="N61" s="2">
         <v>12.916405681301473</v>
       </c>
-      <c r="M61" s="2">
+      <c r="O61" s="2">
         <v>17.997907464121905</v>
       </c>
-      <c r="N61" s="2">
+      <c r="P61" s="2">
+        <v>16.66811876082938</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>21.520385026433679</v>
+      </c>
+      <c r="R61" s="2">
         <v>30.783284291357305</v>
       </c>
-      <c r="O61" s="2">
+      <c r="S61" s="2">
         <v>20.852433918289691</v>
       </c>
-      <c r="P61" s="2">
+      <c r="T61" s="2">
+        <v>23.80132977397794</v>
+      </c>
+      <c r="U61" s="2">
         <v>24.31175974791482</v>
       </c>
-      <c r="Q61" s="2">
+      <c r="V61" s="2">
         <v>37.254808834799789</v>
       </c>
-      <c r="R61" s="2">
+      <c r="W61" s="2">
         <v>17.518379008907893</v>
       </c>
-      <c r="S61" s="2">
+      <c r="X61" s="2">
         <v>24.186488827671493</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y61" s="2">
+        <v>20.827995197560629</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>26.774664350395248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>192</v>
       </c>
@@ -4317,43 +5622,64 @@
         <v>25914.107305248381</v>
       </c>
       <c r="H62" s="2">
+        <v>33656.748632428957</v>
+      </c>
+      <c r="I62" s="2">
         <v>20.010099117534523</v>
       </c>
-      <c r="I62" s="2">
+      <c r="J62" s="2">
         <v>11.31578645205564</v>
       </c>
-      <c r="J62" s="2">
+      <c r="K62" s="2">
+        <v>22.780064146264962</v>
+      </c>
+      <c r="L62" s="2">
         <v>17.445402578193907</v>
       </c>
-      <c r="K62" s="2">
+      <c r="M62" s="2">
         <v>22.574795656875139</v>
       </c>
-      <c r="L62" s="2">
+      <c r="N62" s="2">
         <v>9.5327445849700272</v>
       </c>
-      <c r="M62" s="2">
+      <c r="O62" s="2">
         <v>13.098828319141253</v>
       </c>
-      <c r="N62" s="2">
+      <c r="P62" s="2">
+        <v>20.18344414250058</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>25.376684150029345</v>
+      </c>
+      <c r="R62" s="2">
         <v>23.856486242561108</v>
       </c>
-      <c r="O62" s="2">
+      <c r="S62" s="2">
         <v>14.762821125775163</v>
       </c>
-      <c r="P62" s="2">
+      <c r="T62" s="2">
+        <v>28.594733864822373</v>
+      </c>
+      <c r="U62" s="2">
         <v>20.968735944576284</v>
       </c>
-      <c r="Q62" s="2">
+      <c r="V62" s="2">
         <v>26.744236540545934</v>
       </c>
-      <c r="R62" s="2">
+      <c r="W62" s="2">
         <v>12.616021433500501</v>
       </c>
-      <c r="S62" s="2">
+      <c r="X62" s="2">
         <v>16.909620818049824</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y62" s="2">
+        <v>25.619342073822686</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>31.570125655822061</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>193</v>
       </c>
@@ -4367,43 +5693,64 @@
         <v>25112.897431002326</v>
       </c>
       <c r="H63" s="2">
+        <v>26023.94755846151</v>
+      </c>
+      <c r="I63" s="2">
         <v>36.303514025381546</v>
       </c>
-      <c r="I63" s="2">
+      <c r="J63" s="2">
         <v>19.407914166616976</v>
       </c>
-      <c r="J63" s="2">
+      <c r="K63" s="2">
+        <v>23.627606835801533</v>
+      </c>
+      <c r="L63" s="2">
         <v>29.807803966802215</v>
       </c>
-      <c r="K63" s="2">
+      <c r="M63" s="2">
         <v>42.799224083960873</v>
       </c>
-      <c r="L63" s="2">
+      <c r="N63" s="2">
         <v>16.332206562863213</v>
       </c>
-      <c r="M63" s="2">
+      <c r="O63" s="2">
         <v>22.483621770370739</v>
       </c>
-      <c r="N63" s="2">
+      <c r="P63" s="2">
+        <v>20.135533376113514</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>27.119680295489555</v>
+      </c>
+      <c r="R63" s="2">
         <v>42.638550627309563</v>
       </c>
-      <c r="O63" s="2">
+      <c r="S63" s="2">
         <v>25.547142269720442</v>
       </c>
-      <c r="P63" s="2">
+      <c r="T63" s="2">
+        <v>29.256906624490824</v>
+      </c>
+      <c r="U63" s="2">
         <v>35.34813169404886</v>
       </c>
-      <c r="Q63" s="2">
+      <c r="V63" s="2">
         <v>49.928969560570266</v>
       </c>
-      <c r="R63" s="2">
+      <c r="W63" s="2">
         <v>21.550704587602272</v>
       </c>
-      <c r="S63" s="2">
+      <c r="X63" s="2">
         <v>29.543579951838613</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y63" s="2">
+        <v>25.092199412083517</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>33.421613836898132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>194</v>
       </c>
@@ -4423,43 +5770,64 @@
         <v>25649.30722226201</v>
       </c>
       <c r="H64" s="2">
+        <v>25602.838292312073</v>
+      </c>
+      <c r="I64" s="2">
         <v>46.966490360726006</v>
       </c>
-      <c r="I64" s="2">
+      <c r="J64" s="2">
         <v>7.2324573826983292</v>
       </c>
-      <c r="J64" s="2">
+      <c r="K64" s="2">
+        <v>2.2102371638380762</v>
+      </c>
+      <c r="L64" s="2">
         <v>39.352232457731276</v>
       </c>
-      <c r="K64" s="2">
+      <c r="M64" s="2">
         <v>54.580748263720722</v>
       </c>
-      <c r="L64" s="2">
+      <c r="N64" s="2">
         <v>4.8326392954168931</v>
       </c>
-      <c r="M64" s="2">
+      <c r="O64" s="2">
         <v>9.6322754699797652</v>
       </c>
-      <c r="N64" s="2">
+      <c r="P64" s="2">
+        <v>1.0509002022555785</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>3.3695741254205736</v>
+      </c>
+      <c r="R64" s="2">
         <v>50.998276658858984</v>
       </c>
-      <c r="O64" s="2">
+      <c r="S64" s="2">
         <v>10.397631070751672</v>
       </c>
-      <c r="P64" s="2">
+      <c r="T64" s="2">
+        <v>3.361858598995175</v>
+      </c>
+      <c r="U64" s="2">
         <v>41.696794358650834</v>
       </c>
-      <c r="Q64" s="2">
+      <c r="V64" s="2">
         <v>60.299758959067141</v>
       </c>
-      <c r="R64" s="2">
+      <c r="W64" s="2">
         <v>7.1371889805759814</v>
       </c>
-      <c r="S64" s="2">
+      <c r="X64" s="2">
         <v>13.658073160927362</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y64" s="2">
+        <v>1.5122068941696889</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>5.2115103038206616</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>195</v>
       </c>
@@ -4476,43 +5844,64 @@
         <v>24987.370431294523</v>
       </c>
       <c r="H65" s="2">
+        <v>26847.900029231605</v>
+      </c>
+      <c r="I65" s="2">
         <v>33.031299974716333</v>
       </c>
-      <c r="I65" s="2">
+      <c r="J65" s="2">
         <v>23.933549788311808</v>
       </c>
-      <c r="J65" s="2">
+      <c r="K65" s="2">
+        <v>22.171200925314778</v>
+      </c>
+      <c r="L65" s="2">
         <v>29.674424595189699</v>
       </c>
-      <c r="K65" s="2">
+      <c r="M65" s="2">
         <v>36.388175354242968</v>
       </c>
-      <c r="L65" s="2">
+      <c r="N65" s="2">
         <v>22.513851548447864</v>
       </c>
-      <c r="M65" s="2">
+      <c r="O65" s="2">
         <v>25.353248028175756</v>
       </c>
-      <c r="N65" s="2">
+      <c r="P65" s="2">
+        <v>20.673120559371327</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>23.669281291258233</v>
+      </c>
+      <c r="R65" s="2">
         <v>41.301532410220595</v>
       </c>
-      <c r="O65" s="2">
+      <c r="S65" s="2">
         <v>30.747444217762798</v>
       </c>
-      <c r="P65" s="2">
+      <c r="T65" s="2">
+        <v>28.915950594244293</v>
+      </c>
+      <c r="U65" s="2">
         <v>37.432096319110805</v>
       </c>
-      <c r="Q65" s="2">
+      <c r="V65" s="2">
         <v>45.170968501330393</v>
       </c>
-      <c r="R65" s="2">
+      <c r="W65" s="2">
         <v>29.043370424298249</v>
       </c>
-      <c r="S65" s="2">
+      <c r="X65" s="2">
         <v>32.45151801122735</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y65" s="2">
+        <v>27.090940724198866</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>30.740960464289724</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>196</v>
       </c>
@@ -4529,43 +5918,64 @@
         <v>24216.295885900108</v>
       </c>
       <c r="H66" s="2">
+        <v>28292.585913881379</v>
+      </c>
+      <c r="I66" s="2">
         <v>17.439148498502821</v>
       </c>
-      <c r="I66" s="2">
+      <c r="J66" s="2">
         <v>13.689436311461067</v>
       </c>
-      <c r="J66" s="2">
+      <c r="K66" s="2">
+        <v>19.918572289463448</v>
+      </c>
+      <c r="L66" s="2">
         <v>11.089799449377773</v>
       </c>
-      <c r="K66" s="2">
+      <c r="M66" s="2">
         <v>23.78849754762787</v>
       </c>
-      <c r="L66" s="2">
+      <c r="N66" s="2">
         <v>11.5200813865842</v>
       </c>
-      <c r="M66" s="2">
+      <c r="O66" s="2">
         <v>15.858791236337932</v>
       </c>
-      <c r="N66" s="2">
+      <c r="P66" s="2">
+        <v>17.12021232262228</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>22.716932256304617</v>
+      </c>
+      <c r="R66" s="2">
         <v>21.337622766864317</v>
       </c>
-      <c r="O66" s="2">
+      <c r="S66" s="2">
         <v>19.618523182966559</v>
       </c>
-      <c r="P66" s="2">
+      <c r="T66" s="2">
+        <v>27.200341860405867</v>
+      </c>
+      <c r="U66" s="2">
         <v>13.921654424724339</v>
       </c>
-      <c r="Q66" s="2">
+      <c r="V66" s="2">
         <v>28.753591109004294</v>
       </c>
-      <c r="R66" s="2">
+      <c r="W66" s="2">
         <v>16.705740511806937</v>
       </c>
-      <c r="S66" s="2">
+      <c r="X66" s="2">
         <v>22.531305854126181</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y66" s="2">
+        <v>23.727250489010306</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>30.673433231801432</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>197</v>
       </c>
@@ -4579,43 +5989,64 @@
         <v>29069.7388203351</v>
       </c>
       <c r="H67" s="2">
+        <v>28923.981382500846</v>
+      </c>
+      <c r="I67" s="2">
         <v>42.352868123848708</v>
       </c>
-      <c r="I67" s="2">
+      <c r="J67" s="2">
         <v>40.864300320577648</v>
       </c>
-      <c r="J67" s="2">
+      <c r="K67" s="2">
+        <v>29.435623595463483</v>
+      </c>
+      <c r="L67" s="2">
         <v>30.390676159340686</v>
       </c>
-      <c r="K67" s="2">
+      <c r="M67" s="2">
         <v>54.315060088356724</v>
       </c>
-      <c r="L67" s="2">
+      <c r="N67" s="2">
         <v>37.350365132259981</v>
       </c>
-      <c r="M67" s="2">
+      <c r="O67" s="2">
         <v>44.378235508895308</v>
       </c>
-      <c r="N67" s="2">
+      <c r="P67" s="2">
+        <v>25.497445043761967</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>33.373802147165001</v>
+      </c>
+      <c r="R67" s="2">
         <v>51.522309812641296</v>
       </c>
-      <c r="O67" s="2">
+      <c r="S67" s="2">
         <v>49.455936032452399</v>
       </c>
-      <c r="P67" s="2">
+      <c r="T67" s="2">
+        <v>37.702004044461553</v>
+      </c>
+      <c r="U67" s="2">
         <v>39.688399325977571</v>
       </c>
-      <c r="Q67" s="2">
+      <c r="V67" s="2">
         <v>63.356220299305022</v>
       </c>
-      <c r="R67" s="2">
+      <c r="W67" s="2">
         <v>45.690978465355101</v>
       </c>
-      <c r="S67" s="2">
+      <c r="X67" s="2">
         <v>53.22089359954969</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y67" s="2">
+        <v>33.202852588635956</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>42.201155500287143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>198</v>
       </c>
@@ -4629,43 +6060,64 @@
         <v>23573.9891252702</v>
       </c>
       <c r="H68" s="2">
+        <v>26569.798440934046</v>
+      </c>
+      <c r="I68" s="2">
         <v>25.140004828934565</v>
       </c>
-      <c r="I68" s="2">
+      <c r="J68" s="2">
         <v>21.655635400080403</v>
       </c>
-      <c r="J68" s="2">
+      <c r="K68" s="2">
+        <v>20.788076873137037</v>
+      </c>
+      <c r="L68" s="2">
         <v>21.239436205895931</v>
       </c>
-      <c r="K68" s="2">
+      <c r="M68" s="2">
         <v>29.040573451973195</v>
       </c>
-      <c r="L68" s="2">
+      <c r="N68" s="2">
         <v>19.181097482721459</v>
       </c>
-      <c r="M68" s="2">
+      <c r="O68" s="2">
         <v>24.130173317439347</v>
       </c>
-      <c r="N68" s="2">
+      <c r="P68" s="2">
+        <v>18.14868469661528</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>23.427469049658793</v>
+      </c>
+      <c r="R68" s="2">
         <v>32.795745148229308</v>
       </c>
-      <c r="O68" s="2">
+      <c r="S68" s="2">
         <v>28.223753239603628</v>
       </c>
-      <c r="P68" s="2">
+      <c r="T68" s="2">
+        <v>27.568179244229945</v>
+      </c>
+      <c r="U68" s="2">
         <v>28.211764185021178</v>
       </c>
-      <c r="Q68" s="2">
+      <c r="V68" s="2">
         <v>37.379726111437435</v>
       </c>
-      <c r="R68" s="2">
+      <c r="W68" s="2">
         <v>25.174084728595968</v>
       </c>
-      <c r="S68" s="2">
+      <c r="X68" s="2">
         <v>31.273421750611284</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y68" s="2">
+        <v>24.185802825545021</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>30.950555662914869</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>199</v>
       </c>
@@ -4679,43 +6131,64 @@
         <v>25970.612878156469</v>
       </c>
       <c r="H69" s="2">
+        <v>26571.808624823581</v>
+      </c>
+      <c r="I69" s="2">
         <v>51.843735191176478</v>
       </c>
-      <c r="I69" s="2">
+      <c r="J69" s="2">
         <v>27.615340419615571</v>
       </c>
-      <c r="J69" s="2">
+      <c r="K69" s="2">
+        <v>19.257567855090493</v>
+      </c>
+      <c r="L69" s="2">
         <v>42.288382226468123</v>
       </c>
-      <c r="K69" s="2">
+      <c r="M69" s="2">
         <v>61.399088155884826</v>
       </c>
-      <c r="L69" s="2">
+      <c r="N69" s="2">
         <v>24.2900377894819</v>
       </c>
-      <c r="M69" s="2">
+      <c r="O69" s="2">
         <v>30.940643049749241</v>
       </c>
-      <c r="N69" s="2">
+      <c r="P69" s="2">
+        <v>16.735131908809958</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>21.780003801371027</v>
+      </c>
+      <c r="R69" s="2">
         <v>60.250953197272153</v>
       </c>
-      <c r="O69" s="2">
+      <c r="S69" s="2">
         <v>34.256277195678194</v>
       </c>
-      <c r="P69" s="2">
+      <c r="T69" s="2">
+        <v>25.890143436865408</v>
+      </c>
+      <c r="U69" s="2">
         <v>50.660887087686724</v>
       </c>
-      <c r="Q69" s="2">
+      <c r="V69" s="2">
         <v>69.841019306857575</v>
       </c>
-      <c r="R69" s="2">
+      <c r="W69" s="2">
         <v>30.472190860092979</v>
       </c>
-      <c r="S69" s="2">
+      <c r="X69" s="2">
         <v>38.040363531263402</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y69" s="2">
+        <v>22.530642072367495</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>29.249644801363324</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>200</v>
       </c>
@@ -4729,43 +6202,64 @@
         <v>25755.819070541194</v>
       </c>
       <c r="H70" s="2">
+        <v>28799.16690073234</v>
+      </c>
+      <c r="I70" s="2">
         <v>32.668782222208861</v>
       </c>
-      <c r="I70" s="2">
+      <c r="J70" s="2">
         <v>17.335471984136074</v>
       </c>
-      <c r="J70" s="2">
+      <c r="K70" s="2">
+        <v>15.991427728722288</v>
+      </c>
+      <c r="L70" s="2">
         <v>25.350774280765464</v>
       </c>
-      <c r="K70" s="2">
+      <c r="M70" s="2">
         <v>39.986790163652266</v>
       </c>
-      <c r="L70" s="2">
+      <c r="N70" s="2">
         <v>14.910746643031574</v>
       </c>
-      <c r="M70" s="2">
+      <c r="O70" s="2">
         <v>19.760197325240576</v>
       </c>
-      <c r="N70" s="2">
+      <c r="P70" s="2">
+        <v>13.763451942848731</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>18.219403514595843</v>
+      </c>
+      <c r="R70" s="2">
         <v>40.937386079775806</v>
       </c>
-      <c r="O70" s="2">
+      <c r="S70" s="2">
         <v>23.701040380814732</v>
       </c>
-      <c r="P70" s="2">
+      <c r="T70" s="2">
+        <v>21.509432851422179</v>
+      </c>
+      <c r="U70" s="2">
         <v>30.601614558516605</v>
       </c>
-      <c r="Q70" s="2">
+      <c r="V70" s="2">
         <v>51.273157601035003</v>
       </c>
-      <c r="R70" s="2">
+      <c r="W70" s="2">
         <v>20.447415862033601</v>
       </c>
-      <c r="S70" s="2">
+      <c r="X70" s="2">
         <v>26.954664899595858</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y70" s="2">
+        <v>18.638755822182151</v>
+      </c>
+      <c r="Z70" s="2">
+        <v>24.380109880662211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>201</v>
       </c>
@@ -4779,43 +6273,64 @@
         <v>23130.580494842201</v>
       </c>
       <c r="H71" s="2">
+        <v>25259.488356637121</v>
+      </c>
+      <c r="I71" s="2">
         <v>41.845635631492321</v>
       </c>
-      <c r="I71" s="2">
+      <c r="J71" s="2">
         <v>22.169606785143493</v>
       </c>
-      <c r="J71" s="2">
+      <c r="K71" s="2">
+        <v>27.046101941023927</v>
+      </c>
+      <c r="L71" s="2">
         <v>32.284632725759899</v>
       </c>
-      <c r="K71" s="2">
+      <c r="M71" s="2">
         <v>51.406638537224744</v>
       </c>
-      <c r="L71" s="2">
+      <c r="N71" s="2">
         <v>18.952866428585544</v>
       </c>
-      <c r="M71" s="2">
+      <c r="O71" s="2">
         <v>25.386347141701449</v>
       </c>
-      <c r="N71" s="2">
+      <c r="P71" s="2">
+        <v>23.67055537172336</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>30.421648510324488</v>
+      </c>
+      <c r="R71" s="2">
         <v>49.240205141734613</v>
       </c>
-      <c r="O71" s="2">
+      <c r="S71" s="2">
         <v>29.246508405700116</v>
       </c>
-      <c r="P71" s="2">
+      <c r="T71" s="2">
+        <v>33.854347983847013</v>
+      </c>
+      <c r="U71" s="2">
         <v>37.982243737600371</v>
       </c>
-      <c r="Q71" s="2">
+      <c r="V71" s="2">
         <v>60.498166545868855</v>
       </c>
-      <c r="R71" s="2">
+      <c r="W71" s="2">
         <v>25.15168381631004</v>
       </c>
-      <c r="S71" s="2">
+      <c r="X71" s="2">
         <v>33.341332995090198</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y71" s="2">
+        <v>30.015309514683679</v>
+      </c>
+      <c r="Z71" s="2">
+        <v>37.693386453010355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>202</v>
       </c>
@@ -4832,43 +6347,64 @@
         <v>25649.597933457295</v>
       </c>
       <c r="H72" s="2">
+        <v>28739.160709642692</v>
+      </c>
+      <c r="I72" s="2">
         <v>29.696742937766768</v>
       </c>
-      <c r="I72" s="2">
+      <c r="J72" s="2">
         <v>25.394450610644764</v>
       </c>
-      <c r="J72" s="2">
+      <c r="K72" s="2">
+        <v>23.397726804180117</v>
+      </c>
+      <c r="L72" s="2">
         <v>26.283323221815238</v>
       </c>
-      <c r="K72" s="2">
+      <c r="M72" s="2">
         <v>33.110162653718298</v>
       </c>
-      <c r="L72" s="2">
+      <c r="N72" s="2">
         <v>23.61610437655742</v>
       </c>
-      <c r="M72" s="2">
+      <c r="O72" s="2">
         <v>27.172796844732112</v>
       </c>
-      <c r="N72" s="2">
+      <c r="P72" s="2">
+        <v>21.755767358304716</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>25.039686250055514</v>
+      </c>
+      <c r="R72" s="2">
         <v>37.691069294230537</v>
       </c>
-      <c r="O72" s="2">
+      <c r="S72" s="2">
         <v>32.695953257202092</v>
       </c>
-      <c r="P72" s="2">
+      <c r="T72" s="2">
+        <v>30.059306522186269</v>
+      </c>
+      <c r="U72" s="2">
         <v>33.774195339096124</v>
       </c>
-      <c r="Q72" s="2">
+      <c r="V72" s="2">
         <v>41.607943249364951</v>
       </c>
-      <c r="R72" s="2">
+      <c r="W72" s="2">
         <v>30.606279576216274</v>
       </c>
-      <c r="S72" s="2">
+      <c r="X72" s="2">
         <v>34.78562693818791</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y72" s="2">
+        <v>28.070757325413918</v>
+      </c>
+      <c r="Z72" s="2">
+        <v>32.047855718958616</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>203</v>
       </c>
@@ -4882,43 +6418,64 @@
         <v>28522.69577984828</v>
       </c>
       <c r="H73" s="2">
+        <v>33799.131198032766</v>
+      </c>
+      <c r="I73" s="2">
         <v>50.949424662985876</v>
       </c>
-      <c r="I73" s="2">
+      <c r="J73" s="2">
         <v>36.946805286017572</v>
       </c>
-      <c r="J73" s="2">
+      <c r="K73" s="2">
+        <v>40.76813754573535</v>
+      </c>
+      <c r="L73" s="2">
         <v>44.216488923006381</v>
       </c>
-      <c r="K73" s="2">
+      <c r="M73" s="2">
         <v>57.682360402965372</v>
       </c>
-      <c r="L73" s="2">
+      <c r="N73" s="2">
         <v>32.489965044204325</v>
       </c>
-      <c r="M73" s="2">
+      <c r="O73" s="2">
         <v>41.403645527830811</v>
       </c>
-      <c r="N73" s="2">
+      <c r="P73" s="2">
+        <v>36.854209229394606</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>44.682065862076094</v>
+      </c>
+      <c r="R73" s="2">
         <v>60.530882123312146</v>
       </c>
-      <c r="O73" s="2">
+      <c r="S73" s="2">
         <v>45.441019913186629</v>
       </c>
-      <c r="P73" s="2">
+      <c r="T73" s="2">
+        <v>50.756389550001359</v>
+      </c>
+      <c r="U73" s="2">
         <v>53.719676717573265</v>
       </c>
-      <c r="Q73" s="2">
+      <c r="V73" s="2">
         <v>67.342087529051028</v>
       </c>
-      <c r="R73" s="2">
+      <c r="W73" s="2">
         <v>40.57950976661381</v>
       </c>
-      <c r="S73" s="2">
+      <c r="X73" s="2">
         <v>50.302530059759455</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y73" s="2">
+        <v>46.356663399627926</v>
+      </c>
+      <c r="Z73" s="2">
+        <v>55.156115700374798</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>204</v>
       </c>
@@ -4932,43 +6489,64 @@
         <v>23977.014631274957</v>
       </c>
       <c r="H74" s="2">
+        <v>24065.726588424212</v>
+      </c>
+      <c r="I74" s="2">
         <v>18.887700662560611</v>
       </c>
-      <c r="I74" s="2">
+      <c r="J74" s="2">
         <v>17.434241451370632</v>
       </c>
-      <c r="J74" s="2">
+      <c r="K74" s="2">
+        <v>13.389356986413347</v>
+      </c>
+      <c r="L74" s="2">
         <v>15.065153191990493</v>
       </c>
-      <c r="K74" s="2">
+      <c r="M74" s="2">
         <v>22.71024813313073</v>
       </c>
-      <c r="L74" s="2">
+      <c r="N74" s="2">
         <v>15.287715259539828</v>
       </c>
-      <c r="M74" s="2">
+      <c r="O74" s="2">
         <v>19.580767643201433</v>
       </c>
-      <c r="N74" s="2">
+      <c r="P74" s="2">
+        <v>11.423444936038988</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>15.355269036787705</v>
+      </c>
+      <c r="R74" s="2">
         <v>25.267971573566463</v>
       </c>
-      <c r="O74" s="2">
+      <c r="S74" s="2">
         <v>23.680047454407198</v>
       </c>
-      <c r="P74" s="2">
+      <c r="T74" s="2">
+        <v>18.27277954377934</v>
+      </c>
+      <c r="U74" s="2">
         <v>20.574261000918771</v>
       </c>
-      <c r="Q74" s="2">
+      <c r="V74" s="2">
         <v>29.961682146214152</v>
       </c>
-      <c r="R74" s="2">
+      <c r="W74" s="2">
         <v>20.96237139880429</v>
       </c>
-      <c r="S74" s="2">
+      <c r="X74" s="2">
         <v>26.397723510010106</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y74" s="2">
+        <v>15.779608704217424</v>
+      </c>
+      <c r="Z74" s="2">
+        <v>20.765950383341252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>205</v>
       </c>
@@ -4982,43 +6560,64 @@
         <v>23054.164943323784</v>
       </c>
       <c r="H75" s="2">
+        <v>24707.654908156775</v>
+      </c>
+      <c r="I75" s="2">
         <v>27.597354029832129</v>
       </c>
-      <c r="I75" s="2">
+      <c r="J75" s="2">
         <v>27.113588808768135</v>
       </c>
-      <c r="J75" s="2">
+      <c r="K75" s="2">
+        <v>25.980550104549916</v>
+      </c>
+      <c r="L75" s="2">
         <v>22.564298038923226</v>
       </c>
-      <c r="K75" s="2">
+      <c r="M75" s="2">
         <v>32.630410020741024</v>
       </c>
-      <c r="L75" s="2">
+      <c r="N75" s="2">
         <v>23.603727223289845</v>
       </c>
-      <c r="M75" s="2">
+      <c r="O75" s="2">
         <v>30.623450394246426</v>
       </c>
-      <c r="N75" s="2">
+      <c r="P75" s="2">
+        <v>22.816550286656049</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>29.14454992244378</v>
+      </c>
+      <c r="R75" s="2">
         <v>36.137226274929617</v>
       </c>
-      <c r="O75" s="2">
+      <c r="S75" s="2">
         <v>35.390277269919125</v>
       </c>
-      <c r="P75" s="2">
+      <c r="T75" s="2">
+        <v>33.982534616113</v>
+      </c>
+      <c r="U75" s="2">
         <v>29.981539885211944</v>
       </c>
-      <c r="Q75" s="2">
+      <c r="V75" s="2">
         <v>42.292912664647289</v>
       </c>
-      <c r="R75" s="2">
+      <c r="W75" s="2">
         <v>31.097177091663674</v>
       </c>
-      <c r="S75" s="2">
+      <c r="X75" s="2">
         <v>39.683377448174575</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y75" s="2">
+        <v>30.001446731069336</v>
+      </c>
+      <c r="Z75" s="2">
+        <v>37.963622501156657</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>206</v>
       </c>
@@ -5038,43 +6637,64 @@
         <v>25869.757036585521</v>
       </c>
       <c r="H76" s="2">
+        <v>23925.351696085327</v>
+      </c>
+      <c r="I76" s="2">
         <v>22.22389597618989</v>
       </c>
-      <c r="I76" s="2">
+      <c r="J76" s="2">
         <v>41.60493816022894</v>
       </c>
-      <c r="J76" s="2">
+      <c r="K76" s="2">
+        <v>12.708086123009926</v>
+      </c>
+      <c r="L76" s="2">
         <v>5.6862619757197832</v>
       </c>
-      <c r="K76" s="2">
+      <c r="M76" s="2">
         <v>38.76152997666</v>
       </c>
-      <c r="L76" s="2">
+      <c r="N76" s="2">
         <v>35.809793536465037</v>
       </c>
-      <c r="M76" s="2">
+      <c r="O76" s="2">
         <v>47.40008278399285</v>
       </c>
-      <c r="N76" s="2">
+      <c r="P76" s="2">
+        <v>9.899585302153751</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>15.5165869438661</v>
+      </c>
+      <c r="R76" s="2">
         <v>30.199849698115326</v>
       </c>
-      <c r="O76" s="2">
+      <c r="S76" s="2">
         <v>51.02267209959335</v>
       </c>
-      <c r="P76" s="2">
+      <c r="T76" s="2">
+        <v>17.33120412053572</v>
+      </c>
+      <c r="U76" s="2">
         <v>8.8701589736811854</v>
       </c>
-      <c r="Q76" s="2">
+      <c r="V76" s="2">
         <v>51.529540422549466</v>
       </c>
-      <c r="R76" s="2">
+      <c r="W76" s="2">
         <v>44.865731555417263</v>
       </c>
-      <c r="S76" s="2">
+      <c r="X76" s="2">
         <v>57.179612643769431</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y76" s="2">
+        <v>13.339941014482507</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>21.322467226588934</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>100000000</v>
       </c>
@@ -5091,43 +6711,64 @@
         <v>24835.021076865098</v>
       </c>
       <c r="H77" s="2">
+        <v>28836.246940852521</v>
+      </c>
+      <c r="I77" s="2">
         <v>32.289781101080777</v>
       </c>
-      <c r="I77" s="2">
+      <c r="J77" s="2">
         <v>17.334589484600897</v>
       </c>
-      <c r="J77" s="2">
+      <c r="K77" s="2">
+        <v>19.160779308666463</v>
+      </c>
+      <c r="L77" s="2">
         <v>28.924352328826142</v>
       </c>
-      <c r="K77" s="2">
+      <c r="M77" s="2">
         <v>35.655209873335416</v>
       </c>
-      <c r="L77" s="2">
+      <c r="N77" s="2">
         <v>16.239899211063694</v>
       </c>
-      <c r="M77" s="2">
+      <c r="O77" s="2">
         <v>18.429279758138104</v>
       </c>
-      <c r="N77" s="2">
+      <c r="P77" s="2">
+        <v>17.764050695228811</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>20.557507922104111</v>
+      </c>
+      <c r="R77" s="2">
         <v>38.720640740897359</v>
       </c>
-      <c r="O77" s="2">
+      <c r="S77" s="2">
         <v>23.07975196079915</v>
       </c>
-      <c r="P77" s="2">
+      <c r="T77" s="2">
+        <v>26.072503310929772</v>
+      </c>
+      <c r="U77" s="2">
         <v>34.761064417272806</v>
       </c>
-      <c r="Q77" s="2">
+      <c r="V77" s="2">
         <v>42.680217064521919</v>
       </c>
-      <c r="R77" s="2">
+      <c r="W77" s="2">
         <v>21.685672758245651</v>
       </c>
-      <c r="S77" s="2">
+      <c r="X77" s="2">
         <v>24.473831163352649</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y77" s="2">
+        <v>24.334644644795073</v>
+      </c>
+      <c r="Z77" s="2">
+        <v>27.810361977064474</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>207</v>
       </c>
@@ -5141,43 +6782,64 @@
         <v>25624.44165293709</v>
       </c>
       <c r="H78" s="2">
+        <v>29040.302576596609</v>
+      </c>
+      <c r="I78" s="2">
         <v>47.606453187925567</v>
       </c>
-      <c r="I78" s="2">
+      <c r="J78" s="2">
         <v>22.280681009955234</v>
       </c>
-      <c r="J78" s="2">
+      <c r="K78" s="2">
+        <v>22.801327746531193</v>
+      </c>
+      <c r="L78" s="2">
         <v>42.391651613030419</v>
       </c>
-      <c r="K78" s="2">
+      <c r="M78" s="2">
         <v>52.821254762820722</v>
       </c>
-      <c r="L78" s="2">
+      <c r="N78" s="2">
         <v>19.598820187765615</v>
       </c>
-      <c r="M78" s="2">
+      <c r="O78" s="2">
         <v>24.962541832144858</v>
       </c>
-      <c r="N78" s="2">
+      <c r="P78" s="2">
+        <v>19.359092526862533</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>26.243562966199857</v>
+      </c>
+      <c r="R78" s="2">
         <v>54.006713174563984</v>
       </c>
-      <c r="O78" s="2">
+      <c r="S78" s="2">
         <v>27.559080220826559</v>
       </c>
-      <c r="P78" s="2">
+      <c r="T78" s="2">
+        <v>29.218949186713019</v>
+      </c>
+      <c r="U78" s="2">
         <v>48.287390545466877</v>
       </c>
-      <c r="Q78" s="2">
+      <c r="V78" s="2">
         <v>59.726035803661091</v>
       </c>
-      <c r="R78" s="2">
+      <c r="W78" s="2">
         <v>24.325474931837441</v>
       </c>
-      <c r="S78" s="2">
+      <c r="X78" s="2">
         <v>30.792685509815676</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y78" s="2">
+        <v>25.132322476303315</v>
+      </c>
+      <c r="Z78" s="2">
+        <v>33.305575897122722</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>208</v>
       </c>
@@ -5197,43 +6859,64 @@
         <v>26041.598415128759</v>
       </c>
       <c r="H79" s="2">
+        <v>28514.23349163989</v>
+      </c>
+      <c r="I79" s="2">
         <v>33.856208375238502</v>
       </c>
-      <c r="I79" s="2">
+      <c r="J79" s="2">
         <v>17.939655354158461</v>
       </c>
-      <c r="J79" s="2">
+      <c r="K79" s="2">
+        <v>14.739541281172313</v>
+      </c>
+      <c r="L79" s="2">
         <v>17.423292727625945</v>
       </c>
-      <c r="K79" s="2">
+      <c r="M79" s="2">
         <v>50.289124022851048</v>
       </c>
-      <c r="L79" s="2">
+      <c r="N79" s="2">
         <v>15.026390111917937</v>
       </c>
-      <c r="M79" s="2">
+      <c r="O79" s="2">
         <v>20.852920596398988</v>
       </c>
-      <c r="N79" s="2">
+      <c r="P79" s="2">
+        <v>12.249596475131398</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>17.229486087213228</v>
+      </c>
+      <c r="R79" s="2">
         <v>36.102189893814895</v>
       </c>
-      <c r="O79" s="2">
+      <c r="S79" s="2">
         <v>24.268624494216251</v>
       </c>
-      <c r="P79" s="2">
+      <c r="T79" s="2">
+        <v>20.596822533157024</v>
+      </c>
+      <c r="U79" s="2">
         <v>15.693679035539121</v>
       </c>
-      <c r="Q79" s="2">
+      <c r="V79" s="2">
         <v>56.510700752090671</v>
       </c>
-      <c r="R79" s="2">
+      <c r="W79" s="2">
         <v>20.495805106435252</v>
       </c>
-      <c r="S79" s="2">
+      <c r="X79" s="2">
         <v>28.041443881997246</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y79" s="2">
+        <v>17.35066836062304</v>
+      </c>
+      <c r="Z79" s="2">
+        <v>23.842976705691004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>209</v>
       </c>
@@ -5247,43 +6930,64 @@
         <v>24449.648691073253</v>
       </c>
       <c r="H80" s="2">
+        <v>28588.773283075603</v>
+      </c>
+      <c r="I80" s="2">
         <v>38.114803961128864</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>19.026620800361957</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
+        <v>25.549544147851673</v>
+      </c>
+      <c r="L80" s="2">
         <v>29.17406017103092</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>47.055547751226804</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>16.871978306933919</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>21.181263293789996</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
+        <v>22.499108370491925</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>28.599979925211414</v>
+      </c>
+      <c r="R80" s="2">
         <v>45.690837735883228</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>25.808376563248391</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
+        <v>34.338611363883977</v>
+      </c>
+      <c r="U80" s="2">
         <v>35.630502510471246</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="V80" s="2">
         <v>55.751172961295204</v>
       </c>
-      <c r="R80" s="2">
+      <c r="W80" s="2">
         <v>23.135684017782161</v>
       </c>
-      <c r="S80" s="2">
+      <c r="X80" s="2">
         <v>28.481069108714625</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y80" s="2">
+        <v>30.660990667979686</v>
+      </c>
+      <c r="Z80" s="2">
+        <v>38.016232059788265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>210</v>
       </c>
@@ -5297,43 +7001,64 @@
         <v>24504.757600665394</v>
       </c>
       <c r="H81" s="2">
+        <v>30061.897956501198</v>
+      </c>
+      <c r="I81" s="2">
         <v>36.800178860065188</v>
       </c>
-      <c r="I81" s="2">
+      <c r="J81" s="2">
         <v>19.480631955923101</v>
       </c>
-      <c r="J81" s="2">
+      <c r="K81" s="2">
+        <v>18.287998629765749</v>
+      </c>
+      <c r="L81" s="2">
         <v>30.53463851972808</v>
       </c>
-      <c r="K81" s="2">
+      <c r="M81" s="2">
         <v>43.065719200402306</v>
       </c>
-      <c r="L81" s="2">
+      <c r="N81" s="2">
         <v>16.681786930556946</v>
       </c>
-      <c r="M81" s="2">
+      <c r="O81" s="2">
         <v>22.279476981289253</v>
       </c>
-      <c r="N81" s="2">
+      <c r="P81" s="2">
+        <v>15.231649172343944</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>21.344348087187551</v>
+      </c>
+      <c r="R81" s="2">
         <v>45.091120705884649</v>
       </c>
-      <c r="O81" s="2">
+      <c r="S81" s="2">
         <v>26.801610893557225</v>
       </c>
-      <c r="P81" s="2">
+      <c r="T81" s="2">
+        <v>24.687023745021587</v>
+      </c>
+      <c r="U81" s="2">
         <v>38.771573717366991</v>
       </c>
-      <c r="Q81" s="2">
+      <c r="V81" s="2">
         <v>51.410667694402314</v>
       </c>
-      <c r="R81" s="2">
+      <c r="W81" s="2">
         <v>23.132647704529781</v>
       </c>
-      <c r="S81" s="2">
+      <c r="X81" s="2">
         <v>30.470574082584672</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y81" s="2">
+        <v>20.832448304741039</v>
+      </c>
+      <c r="Z81" s="2">
+        <v>28.541599185302136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>211</v>
       </c>
@@ -5347,43 +7072,64 @@
         <v>24117.623193253035</v>
       </c>
       <c r="H82" s="2">
+        <v>28270.40785996733</v>
+      </c>
+      <c r="I82" s="2">
         <v>16.470957680175314</v>
       </c>
-      <c r="I82" s="2">
+      <c r="J82" s="2">
         <v>11.445656387811825</v>
       </c>
-      <c r="J82" s="2">
+      <c r="K82" s="2">
+        <v>12.966392382966857</v>
+      </c>
+      <c r="L82" s="2">
         <v>13.050898931734009</v>
       </c>
-      <c r="K82" s="2">
+      <c r="M82" s="2">
         <v>19.891016428616616</v>
       </c>
-      <c r="L82" s="2">
+      <c r="N82" s="2">
         <v>10.06027539150033</v>
       </c>
-      <c r="M82" s="2">
+      <c r="O82" s="2">
         <v>12.831037384123317</v>
       </c>
-      <c r="N82" s="2">
+      <c r="P82" s="2">
+        <v>11.396626190230631</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>14.536158575703084</v>
+      </c>
+      <c r="R82" s="2">
         <v>21.353093684331455</v>
       </c>
-      <c r="O82" s="2">
+      <c r="S82" s="2">
         <v>15.827284720390184</v>
       </c>
-      <c r="P82" s="2">
+      <c r="T82" s="2">
+        <v>18.732449024930304</v>
+      </c>
+      <c r="U82" s="2">
         <v>16.863563913336201</v>
       </c>
-      <c r="Q82" s="2">
+      <c r="V82" s="2">
         <v>25.842623455326709</v>
       </c>
-      <c r="R82" s="2">
+      <c r="W82" s="2">
         <v>13.913896536390766</v>
       </c>
-      <c r="S82" s="2">
+      <c r="X82" s="2">
         <v>17.740672904389601</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y82" s="2">
+        <v>16.583857927015561</v>
+      </c>
+      <c r="Z82" s="2">
+        <v>20.881040122845047</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>110000000</v>
       </c>
@@ -5400,43 +7146,64 @@
         <v>25952.757053289701</v>
       </c>
       <c r="H83" s="2">
+        <v>28102.193332801362</v>
+      </c>
+      <c r="I83" s="2">
         <v>18.007303475221963</v>
       </c>
-      <c r="I83" s="2">
+      <c r="J83" s="2">
         <v>13.898152681829581</v>
       </c>
-      <c r="J83" s="2">
+      <c r="K83" s="2">
+        <v>11.871171210722316</v>
+      </c>
+      <c r="L83" s="2">
         <v>15.636547194890927</v>
       </c>
-      <c r="K83" s="2">
+      <c r="M83" s="2">
         <v>20.378059755553004</v>
       </c>
-      <c r="L83" s="2">
+      <c r="N83" s="2">
         <v>12.735418977750063</v>
       </c>
-      <c r="M83" s="2">
+      <c r="O83" s="2">
         <v>15.0608863859091</v>
       </c>
-      <c r="N83" s="2">
+      <c r="P83" s="2">
+        <v>10.931139794236975</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>12.81120262720766</v>
+      </c>
+      <c r="R83" s="2">
         <v>23.512564064084824</v>
       </c>
-      <c r="O83" s="2">
+      <c r="S83" s="2">
         <v>19.070064225112525</v>
       </c>
-      <c r="P83" s="2">
+      <c r="T83" s="2">
+        <v>16.758972113838919</v>
+      </c>
+      <c r="U83" s="2">
         <v>20.586563402320525</v>
       </c>
-      <c r="Q83" s="2">
+      <c r="V83" s="2">
         <v>26.438564725849123</v>
       </c>
-      <c r="R83" s="2">
+      <c r="W83" s="2">
         <v>17.563922655944992</v>
       </c>
-      <c r="S83" s="2">
+      <c r="X83" s="2">
         <v>20.57620579428006</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y83" s="2">
+        <v>15.506573838851374</v>
+      </c>
+      <c r="Z83" s="2">
+        <v>18.011370388826464</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>212</v>
       </c>
@@ -5450,43 +7217,64 @@
         <v>27033.510733180228</v>
       </c>
       <c r="H84" s="2">
+        <v>27353.782879295701</v>
+      </c>
+      <c r="I84" s="2">
         <v>24.321050222989136</v>
       </c>
-      <c r="I84" s="2">
+      <c r="J84" s="2">
         <v>10.261878379362008</v>
       </c>
-      <c r="J84" s="2">
+      <c r="K84" s="2">
+        <v>7.3257561076811788</v>
+      </c>
+      <c r="L84" s="2">
         <v>17.664340081869323</v>
       </c>
-      <c r="K84" s="2">
+      <c r="M84" s="2">
         <v>30.977760364108946</v>
       </c>
-      <c r="L84" s="2">
+      <c r="N84" s="2">
         <v>8.0159703550092658</v>
       </c>
-      <c r="M84" s="2">
+      <c r="O84" s="2">
         <v>12.50778640371475</v>
       </c>
-      <c r="N84" s="2">
+      <c r="P84" s="2">
+        <v>5.388518359926044</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>9.2629938554363154</v>
+      </c>
+      <c r="R84" s="2">
         <v>31.021412549248389</v>
       </c>
-      <c r="O84" s="2">
+      <c r="S84" s="2">
         <v>13.438512949366785</v>
       </c>
-      <c r="P84" s="2">
+      <c r="T84" s="2">
+        <v>10.62309075663538</v>
+      </c>
+      <c r="U84" s="2">
         <v>22.908317243429231</v>
       </c>
-      <c r="Q84" s="2">
+      <c r="V84" s="2">
         <v>39.134507855067547</v>
       </c>
-      <c r="R84" s="2">
+      <c r="W84" s="2">
         <v>10.715323641595594</v>
       </c>
-      <c r="S84" s="2">
+      <c r="X84" s="2">
         <v>16.161702257137975</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y84" s="2">
+        <v>8.0477206506603896</v>
+      </c>
+      <c r="Z84" s="2">
+        <v>13.19846086261037</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>213</v>
       </c>
@@ -5500,43 +7288,64 @@
         <v>25807.184217503913</v>
       </c>
       <c r="H85" s="2">
+        <v>29749.381724420295</v>
+      </c>
+      <c r="I85" s="2">
         <v>14.799423847153632</v>
       </c>
-      <c r="I85" s="2">
+      <c r="J85" s="2">
         <v>8.1203846319646651</v>
       </c>
-      <c r="J85" s="2">
+      <c r="K85" s="2">
+        <v>7.2334937057875681</v>
+      </c>
+      <c r="L85" s="2">
         <v>11.69296317209416</v>
       </c>
-      <c r="K85" s="2">
+      <c r="M85" s="2">
         <v>17.9058845222131</v>
       </c>
-      <c r="L85" s="2">
+      <c r="N85" s="2">
         <v>6.2059889852161483</v>
       </c>
-      <c r="M85" s="2">
+      <c r="O85" s="2">
         <v>10.034780278713182</v>
       </c>
-      <c r="N85" s="2">
+      <c r="P85" s="2">
+        <v>5.9600283932847109</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>8.5069590182904253</v>
+      </c>
+      <c r="R85" s="2">
         <v>19.01503644621409</v>
       </c>
-      <c r="O85" s="2">
+      <c r="S85" s="2">
         <v>11.775807024479127</v>
       </c>
-      <c r="P85" s="2">
+      <c r="T85" s="2">
+        <v>10.373049410901508</v>
+      </c>
+      <c r="U85" s="2">
         <v>15.252991799839016</v>
       </c>
-      <c r="Q85" s="2">
+      <c r="V85" s="2">
         <v>22.777081092589164</v>
       </c>
-      <c r="R85" s="2">
+      <c r="W85" s="2">
         <v>9.1272581890650493</v>
       </c>
-      <c r="S85" s="2">
+      <c r="X85" s="2">
         <v>14.424355859893204</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y85" s="2">
+        <v>8.6159883042846435</v>
+      </c>
+      <c r="Z85" s="2">
+        <v>12.130110517518371</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>214</v>
       </c>
@@ -5550,43 +7359,64 @@
         <v>26346.862684080523</v>
       </c>
       <c r="H86" s="2">
+        <v>27806.023410814916</v>
+      </c>
+      <c r="I86" s="2">
         <v>22.483399562852149</v>
       </c>
-      <c r="I86" s="2">
+      <c r="J86" s="2">
         <v>27.708089564253608</v>
       </c>
-      <c r="J86" s="2">
+      <c r="K86" s="2">
+        <v>21.768916644897025</v>
+      </c>
+      <c r="L86" s="2">
         <v>16.498254165211794</v>
       </c>
-      <c r="K86" s="2">
+      <c r="M86" s="2">
         <v>28.468544960492505</v>
       </c>
-      <c r="L86" s="2">
+      <c r="N86" s="2">
         <v>24.667103842402234</v>
       </c>
-      <c r="M86" s="2">
+      <c r="O86" s="2">
         <v>30.749075286104983</v>
       </c>
-      <c r="N86" s="2">
+      <c r="P86" s="2">
+        <v>18.842146896167666</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>24.695686393626382</v>
+      </c>
+      <c r="R86" s="2">
         <v>31.107688577538529</v>
       </c>
-      <c r="O86" s="2">
+      <c r="S86" s="2">
         <v>37.66257227965982</v>
       </c>
-      <c r="P86" s="2">
+      <c r="T86" s="2">
+        <v>30.364257864025173</v>
+      </c>
+      <c r="U86" s="2">
         <v>23.948543583278305</v>
       </c>
-      <c r="Q86" s="2">
+      <c r="V86" s="2">
         <v>38.266833571798756</v>
       </c>
-      <c r="R86" s="2">
+      <c r="W86" s="2">
         <v>33.817484256458798</v>
       </c>
-      <c r="S86" s="2">
+      <c r="X86" s="2">
         <v>41.507660302860842</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y86" s="2">
+        <v>26.511405740977388</v>
+      </c>
+      <c r="Z86" s="2">
+        <v>34.217109987072959</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>215</v>
       </c>
@@ -5600,43 +7430,64 @@
         <v>25866.625838401411</v>
       </c>
       <c r="H87" s="2">
+        <v>26160.918253721004</v>
+      </c>
+      <c r="I87" s="2">
         <v>20.802950140015987</v>
       </c>
-      <c r="I87" s="2">
+      <c r="J87" s="2">
         <v>18.586916336318104</v>
       </c>
-      <c r="J87" s="2">
+      <c r="K87" s="2">
+        <v>17.738768673116137</v>
+      </c>
+      <c r="L87" s="2">
         <v>16.447461460747967</v>
       </c>
-      <c r="K87" s="2">
+      <c r="M87" s="2">
         <v>25.158438819284008</v>
       </c>
-      <c r="L87" s="2">
+      <c r="N87" s="2">
         <v>16.024581843917236</v>
       </c>
-      <c r="M87" s="2">
+      <c r="O87" s="2">
         <v>21.149250828718973</v>
       </c>
-      <c r="N87" s="2">
+      <c r="P87" s="2">
+        <v>15.098076258897475</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>20.3794610873348</v>
+      </c>
+      <c r="R87" s="2">
         <v>26.667267837794384</v>
       </c>
-      <c r="O87" s="2">
+      <c r="S87" s="2">
         <v>25.160843997480942</v>
       </c>
-      <c r="P87" s="2">
+      <c r="T87" s="2">
+        <v>23.878191974197268</v>
+      </c>
+      <c r="U87" s="2">
         <v>20.983579159516957</v>
       </c>
-      <c r="Q87" s="2">
+      <c r="V87" s="2">
         <v>32.350956516071811</v>
       </c>
-      <c r="R87" s="2">
+      <c r="W87" s="2">
         <v>21.827578633960314</v>
       </c>
-      <c r="S87" s="2">
+      <c r="X87" s="2">
         <v>28.49410936100157</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y87" s="2">
+        <v>20.404891973198481</v>
+      </c>
+      <c r="Z87" s="2">
+        <v>27.351491975196058</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>118600000</v>
       </c>
@@ -5647,44 +7498,65 @@
       <c r="G88" s="2">
         <v>25355.557906550628</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" s="2">
+        <v>28511.12459188874</v>
+      </c>
+      <c r="I88" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I88" s="2">
+      <c r="J88" s="2">
         <v>31.87756335513534</v>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="K88" s="2">
+        <v>34.503128083421558</v>
+      </c>
+      <c r="L88" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="M88" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="L88" s="2">
+      <c r="N88" s="2">
         <v>28.332741093054022</v>
       </c>
-      <c r="M88" s="2">
+      <c r="O88" s="2">
         <v>35.422385617216662</v>
       </c>
-      <c r="N88" s="2" t="s">
+      <c r="P88" s="2">
+        <v>30.388686337664538</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>38.617569829178578</v>
+      </c>
+      <c r="R88" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="O88" s="2">
+      <c r="S88" s="2">
         <v>40.784974158116647</v>
       </c>
-      <c r="P88" s="2" t="s">
+      <c r="T88" s="2">
+        <v>43.443074843271873</v>
+      </c>
+      <c r="U88" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Q88" s="2" t="s">
+      <c r="V88" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="R88" s="2">
+      <c r="W88" s="2">
         <v>36.544771954078151</v>
       </c>
-      <c r="S88" s="2">
+      <c r="X88" s="2">
         <v>45.02517636215515</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y88" s="2">
+        <v>38.735304821998099</v>
+      </c>
+      <c r="Z88" s="2">
+        <v>48.150844864545647</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>120000000</v>
       </c>
@@ -5701,43 +7573,64 @@
         <v>25023.01027110971</v>
       </c>
       <c r="H89" s="2">
+        <v>26443.407942027134</v>
+      </c>
+      <c r="I89" s="2">
         <v>31.213706756861509</v>
       </c>
-      <c r="I89" s="2">
+      <c r="J89" s="2">
         <v>22.353081489137278</v>
       </c>
-      <c r="J89" s="2">
+      <c r="K89" s="2">
+        <v>21.387192961288619</v>
+      </c>
+      <c r="L89" s="2">
         <v>27.61785221841296</v>
       </c>
-      <c r="K89" s="2">
+      <c r="M89" s="2">
         <v>34.809561295310061</v>
       </c>
-      <c r="L89" s="2">
+      <c r="N89" s="2">
         <v>20.576853867852112</v>
       </c>
-      <c r="M89" s="2">
+      <c r="O89" s="2">
         <v>24.129309110422444</v>
       </c>
-      <c r="N89" s="2">
+      <c r="P89" s="2">
+        <v>19.7530985762033</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>23.021287346373935</v>
+      </c>
+      <c r="R89" s="2">
         <v>38.146905215415721</v>
       </c>
-      <c r="O89" s="2">
+      <c r="S89" s="2">
         <v>28.222427113404571</v>
       </c>
-      <c r="P89" s="2">
+      <c r="T89" s="2">
+        <v>28.074487909477792</v>
+      </c>
+      <c r="U89" s="2">
         <v>33.975901015618689</v>
       </c>
-      <c r="Q89" s="2">
+      <c r="V89" s="2">
         <v>42.317909415212753</v>
       </c>
-      <c r="R89" s="2">
+      <c r="W89" s="2">
         <v>26.162966796627487</v>
       </c>
-      <c r="S89" s="2">
+      <c r="X89" s="2">
         <v>30.281887430181655</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y89" s="2">
+        <v>26.042576186216792</v>
+      </c>
+      <c r="Z89" s="2">
+        <v>30.106399632738789</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>216</v>
       </c>
@@ -5751,43 +7644,64 @@
         <v>25019.644780391496</v>
       </c>
       <c r="H90" s="2">
+        <v>27473.332927450447</v>
+      </c>
+      <c r="I90" s="2">
         <v>36.512882570796187</v>
       </c>
-      <c r="I90" s="2">
+      <c r="J90" s="2">
         <v>23.564543243730121</v>
       </c>
-      <c r="J90" s="2">
+      <c r="K90" s="2">
+        <v>23.601043296174076</v>
+      </c>
+      <c r="L90" s="2">
         <v>31.059493659840555</v>
       </c>
-      <c r="K90" s="2">
+      <c r="M90" s="2">
         <v>41.966271481751818</v>
       </c>
-      <c r="L90" s="2">
+      <c r="N90" s="2">
         <v>19.463779195916768</v>
       </c>
-      <c r="M90" s="2">
+      <c r="O90" s="2">
         <v>27.665307291543474</v>
       </c>
-      <c r="N90" s="2">
+      <c r="P90" s="2">
+        <v>19.790225427458623</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>27.41186116488953</v>
+      </c>
+      <c r="R90" s="2">
         <v>43.171728243859917</v>
       </c>
-      <c r="O90" s="2">
+      <c r="S90" s="2">
         <v>29.248376181943243</v>
       </c>
-      <c r="P90" s="2">
+      <c r="T90" s="2">
+        <v>31.809024973453077</v>
+      </c>
+      <c r="U90" s="2">
         <v>37.21676688273314</v>
       </c>
-      <c r="Q90" s="2">
+      <c r="V90" s="2">
         <v>49.126689604986687</v>
       </c>
-      <c r="R90" s="2">
+      <c r="W90" s="2">
         <v>24.561056826560669</v>
       </c>
-      <c r="S90" s="2">
+      <c r="X90" s="2">
         <v>33.935695537325813</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y90" s="2">
+        <v>26.998645058328947</v>
+      </c>
+      <c r="Z90" s="2">
+        <v>36.619404888577208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>217</v>
       </c>
@@ -5801,43 +7715,64 @@
         <v>23281.544305283278</v>
       </c>
       <c r="H91" s="2">
+        <v>24070.419691891686</v>
+      </c>
+      <c r="I91" s="2">
         <v>45.231787686912334</v>
       </c>
-      <c r="I91" s="2">
+      <c r="J91" s="2">
         <v>36.07114771119177</v>
       </c>
-      <c r="J91" s="2">
+      <c r="K91" s="2">
+        <v>33.536374519641342</v>
+      </c>
+      <c r="L91" s="2">
         <v>36.309320382279594</v>
       </c>
-      <c r="K91" s="2">
+      <c r="M91" s="2">
         <v>54.154254991545073</v>
       </c>
-      <c r="L91" s="2">
+      <c r="N91" s="2">
         <v>30.701315686558161</v>
       </c>
-      <c r="M91" s="2">
+      <c r="O91" s="2">
         <v>41.44097973582538</v>
       </c>
-      <c r="N91" s="2">
+      <c r="P91" s="2">
+        <v>29.589229753436314</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>37.48351928584637</v>
+      </c>
+      <c r="R91" s="2">
         <v>53.170705696836087</v>
       </c>
-      <c r="O91" s="2">
+      <c r="S91" s="2">
         <v>41.890865849158082</v>
       </c>
-      <c r="P91" s="2">
+      <c r="T91" s="2">
+        <v>41.143493591925946</v>
+      </c>
+      <c r="U91" s="2">
         <v>44.330561684816637</v>
       </c>
-      <c r="Q91" s="2">
+      <c r="V91" s="2">
         <v>62.010849708855531</v>
       </c>
-      <c r="R91" s="2">
+      <c r="W91" s="2">
         <v>36.179271140067407</v>
       </c>
-      <c r="S91" s="2">
+      <c r="X91" s="2">
         <v>47.602460558248758</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y91" s="2">
+        <v>36.62947516650469</v>
+      </c>
+      <c r="Z91" s="2">
+        <v>45.657512017347202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>218</v>
       </c>
@@ -5851,43 +7786,64 @@
         <v>25239.546038638826</v>
       </c>
       <c r="H92" s="2">
+        <v>24455.088301887354</v>
+      </c>
+      <c r="I92" s="2">
         <v>18.295928212291855</v>
       </c>
-      <c r="I92" s="2">
+      <c r="J92" s="2">
         <v>13.729422716996636</v>
       </c>
-      <c r="J92" s="2">
+      <c r="K92" s="2">
+        <v>12.763734902788229</v>
+      </c>
+      <c r="L92" s="2">
         <v>14.454676228154783</v>
       </c>
-      <c r="K92" s="2">
+      <c r="M92" s="2">
         <v>22.137180196428925</v>
       </c>
-      <c r="L92" s="2">
+      <c r="N92" s="2">
         <v>11.271758168464672</v>
       </c>
-      <c r="M92" s="2">
+      <c r="O92" s="2">
         <v>16.187087265528604</v>
       </c>
-      <c r="N92" s="2">
+      <c r="P92" s="2">
+        <v>10.781500797519634</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>14.745969008056825</v>
+      </c>
+      <c r="R92" s="2">
         <v>22.889677147976236</v>
       </c>
-      <c r="O92" s="2">
+      <c r="S92" s="2">
         <v>18.030408955865866</v>
       </c>
-      <c r="P92" s="2">
+      <c r="T92" s="2">
+        <v>16.672255107399128</v>
+      </c>
+      <c r="U92" s="2">
         <v>18.403244587091454</v>
       </c>
-      <c r="Q92" s="2">
+      <c r="V92" s="2">
         <v>27.376109708861019</v>
       </c>
-      <c r="R92" s="2">
+      <c r="W92" s="2">
         <v>15.048034234749503</v>
       </c>
-      <c r="S92" s="2">
+      <c r="X92" s="2">
         <v>21.012783676982227</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y92" s="2">
+        <v>14.116822041435057</v>
+      </c>
+      <c r="Z92" s="2">
+        <v>19.227688173363198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>219</v>
       </c>
@@ -5901,43 +7857,64 @@
         <v>23775.148513752261</v>
       </c>
       <c r="H93" s="2">
+        <v>25295.164260813435</v>
+      </c>
+      <c r="I93" s="2">
         <v>41.23663007805915</v>
       </c>
-      <c r="I93" s="2">
+      <c r="J93" s="2">
         <v>24.28251959624297</v>
       </c>
-      <c r="J93" s="2">
+      <c r="K93" s="2">
+        <v>23.77145126867007</v>
+      </c>
+      <c r="L93" s="2">
         <v>28.937256198917815</v>
       </c>
-      <c r="K93" s="2">
+      <c r="M93" s="2">
         <v>53.536003957200485</v>
       </c>
-      <c r="L93" s="2">
+      <c r="N93" s="2">
         <v>21.009508124427555</v>
       </c>
-      <c r="M93" s="2">
+      <c r="O93" s="2">
         <v>27.555531068058382</v>
       </c>
-      <c r="N93" s="2">
+      <c r="P93" s="2">
+        <v>19.83301748236126</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>27.709885054978884</v>
+      </c>
+      <c r="R93" s="2">
         <v>49.801066035065283</v>
       </c>
-      <c r="O93" s="2">
+      <c r="S93" s="2">
         <v>31.489519638430203</v>
       </c>
-      <c r="P93" s="2">
+      <c r="T93" s="2">
+        <v>30.246901736670438</v>
+      </c>
+      <c r="U93" s="2">
         <v>35.895870897985283</v>
       </c>
-      <c r="Q93" s="2">
+      <c r="V93" s="2">
         <v>63.706261172145283</v>
       </c>
-      <c r="R93" s="2">
+      <c r="W93" s="2">
         <v>27.179503771107445</v>
       </c>
-      <c r="S93" s="2">
+      <c r="X93" s="2">
         <v>35.799535505752964</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y93" s="2">
+        <v>25.610191523184422</v>
+      </c>
+      <c r="Z93" s="2">
+        <v>34.883611950156457</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>220</v>
       </c>
@@ -5957,43 +7934,64 @@
         <v>30349.267615113513</v>
       </c>
       <c r="H94" s="2">
+        <v>33889.627028959898</v>
+      </c>
+      <c r="I94" s="2">
         <v>38.487016170147676</v>
       </c>
-      <c r="I94" s="2">
+      <c r="J94" s="2">
         <v>35.210578111681073</v>
       </c>
-      <c r="J94" s="2">
+      <c r="K94" s="2">
+        <v>31.303352486895484</v>
+      </c>
+      <c r="L94" s="2">
         <v>24.312593634292089</v>
       </c>
-      <c r="K94" s="2">
+      <c r="M94" s="2">
         <v>52.66143870600326</v>
       </c>
-      <c r="L94" s="2">
+      <c r="N94" s="2">
         <v>31.291409947720929</v>
       </c>
-      <c r="M94" s="2">
+      <c r="O94" s="2">
         <v>39.129746275641217</v>
       </c>
-      <c r="N94" s="2">
+      <c r="P94" s="2">
+        <v>27.096903580867597</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>35.509801392923372</v>
+      </c>
+      <c r="R94" s="2">
         <v>48.715290577802428</v>
       </c>
-      <c r="O94" s="2">
+      <c r="S94" s="2">
         <v>42.006865507616894</v>
       </c>
-      <c r="P94" s="2">
+      <c r="T94" s="2">
+        <v>39.717580443201157</v>
+      </c>
+      <c r="U94" s="2">
         <v>33.298976958988746</v>
       </c>
-      <c r="Q94" s="2">
+      <c r="V94" s="2">
         <v>64.131604196616109</v>
       </c>
-      <c r="R94" s="2">
+      <c r="W94" s="2">
         <v>37.577114596884023</v>
       </c>
-      <c r="S94" s="2">
+      <c r="X94" s="2">
         <v>46.436616418349757</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y94" s="2">
+        <v>35.018016633520098</v>
+      </c>
+      <c r="Z94" s="2">
+        <v>44.41714425288221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>160000000</v>
       </c>
@@ -6010,43 +8008,64 @@
         <v>25374.539169028161</v>
       </c>
       <c r="H95" s="2">
+        <v>27334.813991230323</v>
+      </c>
+      <c r="I95" s="2">
         <v>31.11138480790186</v>
       </c>
-      <c r="I95" s="2">
+      <c r="J95" s="2">
         <v>24.125013895910296</v>
       </c>
-      <c r="J95" s="2">
+      <c r="K95" s="2">
+        <v>25.889952391707265</v>
+      </c>
+      <c r="L95" s="2">
         <v>28.16154952289715</v>
       </c>
-      <c r="K95" s="2">
+      <c r="M95" s="2">
         <v>34.061220092906566</v>
       </c>
-      <c r="L95" s="2">
+      <c r="N95" s="2">
         <v>22.733477729569895</v>
       </c>
-      <c r="M95" s="2">
+      <c r="O95" s="2">
         <v>25.516550062250698</v>
       </c>
-      <c r="N95" s="2">
+      <c r="P95" s="2">
+        <v>24.384349347636956</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>27.395555435777581</v>
+      </c>
+      <c r="R95" s="2">
         <v>39.652135173279525</v>
       </c>
-      <c r="O95" s="2">
+      <c r="S95" s="2">
         <v>30.540732404099057</v>
       </c>
-      <c r="P95" s="2">
+      <c r="T95" s="2">
+        <v>33.193568312501583</v>
+      </c>
+      <c r="U95" s="2">
         <v>36.28426915902552</v>
       </c>
-      <c r="Q95" s="2">
+      <c r="V95" s="2">
         <v>43.020001187533531</v>
       </c>
-      <c r="R95" s="2">
+      <c r="W95" s="2">
         <v>28.902340594769903</v>
       </c>
-      <c r="S95" s="2">
+      <c r="X95" s="2">
         <v>32.17912421342821</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y95" s="2">
+        <v>31.350314384901402</v>
+      </c>
+      <c r="Z95" s="2">
+        <v>35.036822240101763</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>236</v>
       </c>
@@ -6060,43 +8079,64 @@
         <v>23775.188736637152</v>
       </c>
       <c r="H96" s="2">
+        <v>27721.611187286617</v>
+      </c>
+      <c r="I96" s="2">
         <v>25.763022668917461</v>
       </c>
-      <c r="I96" s="2">
+      <c r="J96" s="2">
         <v>18.929918902335153</v>
       </c>
-      <c r="J96" s="2">
+      <c r="K96" s="2">
+        <v>23.486352484418909</v>
+      </c>
+      <c r="L96" s="2">
         <v>19.648179103888541</v>
       </c>
-      <c r="K96" s="2">
+      <c r="M96" s="2">
         <v>31.877866233946385</v>
       </c>
-      <c r="L96" s="2">
+      <c r="N96" s="2">
         <v>16.987933268880692</v>
       </c>
-      <c r="M96" s="2">
+      <c r="O96" s="2">
         <v>20.871904535789611</v>
       </c>
-      <c r="N96" s="2">
+      <c r="P96" s="2">
+        <v>21.453914658672211</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>25.518790310165606</v>
+      </c>
+      <c r="R96" s="2">
         <v>32.821197231540694</v>
       </c>
-      <c r="O96" s="2">
+      <c r="S96" s="2">
         <v>24.380222363606023</v>
       </c>
-      <c r="P96" s="2">
+      <c r="T96" s="2">
+        <v>30.804822884050026</v>
+      </c>
+      <c r="U96" s="2">
         <v>26.192560468111875</v>
       </c>
-      <c r="Q96" s="2">
+      <c r="V96" s="2">
         <v>39.449833994969516</v>
       </c>
-      <c r="R96" s="2">
+      <c r="W96" s="2">
         <v>21.919744215744529</v>
       </c>
-      <c r="S96" s="2">
+      <c r="X96" s="2">
         <v>26.840700511467517</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y96" s="2">
+        <v>28.328740585407118</v>
+      </c>
+      <c r="Z96" s="2">
+        <v>33.280905182692933</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>237</v>
       </c>
@@ -6110,43 +8150,64 @@
         <v>24655.136627816853</v>
       </c>
       <c r="H97" s="2">
+        <v>27820.892030299463</v>
+      </c>
+      <c r="I97" s="2">
         <v>37.477337530066414</v>
       </c>
-      <c r="I97" s="2">
+      <c r="J97" s="2">
         <v>30.569267841116453</v>
       </c>
-      <c r="J97" s="2">
+      <c r="K97" s="2">
+        <v>33.358071790481695</v>
+      </c>
+      <c r="L97" s="2">
         <v>31.137895567293306</v>
       </c>
-      <c r="K97" s="2">
+      <c r="M97" s="2">
         <v>43.816779492839522</v>
       </c>
-      <c r="L97" s="2">
+      <c r="N97" s="2">
         <v>27.012988495491964</v>
       </c>
-      <c r="M97" s="2">
+      <c r="O97" s="2">
         <v>34.125547186740945</v>
       </c>
-      <c r="N97" s="2">
+      <c r="P97" s="2">
+        <v>29.859144076601122</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>36.856999504362271</v>
+      </c>
+      <c r="R97" s="2">
         <v>47.766013480664164</v>
       </c>
-      <c r="O97" s="2">
+      <c r="S97" s="2">
         <v>37.890984641615255</v>
       </c>
-      <c r="P97" s="2">
+      <c r="T97" s="2">
+        <v>41.313446307304488</v>
+      </c>
+      <c r="U97" s="2">
         <v>41.12057502737985</v>
       </c>
-      <c r="Q97" s="2">
+      <c r="V97" s="2">
         <v>54.41145193394847</v>
       </c>
-      <c r="R97" s="2">
+      <c r="W97" s="2">
         <v>33.880332300782342</v>
       </c>
-      <c r="S97" s="2">
+      <c r="X97" s="2">
         <v>41.901636982448167</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y97" s="2">
+        <v>37.209623238027739</v>
+      </c>
+      <c r="Z97" s="2">
+        <v>45.417269376581231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>238</v>
       </c>
@@ -6160,43 +8221,64 @@
         <v>28293.475606543881</v>
       </c>
       <c r="H98" s="2">
+        <v>26443.764513830156</v>
+      </c>
+      <c r="I98" s="2">
         <v>28.801973886993643</v>
       </c>
-      <c r="I98" s="2">
+      <c r="J98" s="2">
         <v>27.650350545311731</v>
       </c>
-      <c r="J98" s="2">
+      <c r="K98" s="2">
+        <v>21.157327179117146</v>
+      </c>
+      <c r="L98" s="2">
         <v>23.117084903689761</v>
       </c>
-      <c r="K98" s="2">
+      <c r="M98" s="2">
         <v>34.486862870297522</v>
       </c>
-      <c r="L98" s="2">
+      <c r="N98" s="2">
         <v>24.707618822941559</v>
       </c>
-      <c r="M98" s="2">
+      <c r="O98" s="2">
         <v>30.593082267681904</v>
       </c>
-      <c r="N98" s="2">
+      <c r="P98" s="2">
+        <v>17.267528379368411</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>25.047125978865882</v>
+      </c>
+      <c r="R98" s="2">
         <v>37.171452050182651</v>
       </c>
-      <c r="O98" s="2">
+      <c r="S98" s="2">
         <v>34.371804275031096</v>
       </c>
-      <c r="P98" s="2">
+      <c r="T98" s="2">
+        <v>27.587427260296852</v>
+      </c>
+      <c r="U98" s="2">
         <v>29.987700992943793</v>
       </c>
-      <c r="Q98" s="2">
+      <c r="V98" s="2">
         <v>44.355203107421509</v>
       </c>
-      <c r="R98" s="2">
+      <c r="W98" s="2">
         <v>30.964058114803461</v>
       </c>
-      <c r="S98" s="2">
+      <c r="X98" s="2">
         <v>37.779550435258727</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y98" s="2">
+        <v>22.547667462980286</v>
+      </c>
+      <c r="Z98" s="2">
+        <v>32.627187057613419</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>239</v>
       </c>
@@ -6210,43 +8292,64 @@
         <v>24873.199287186475</v>
       </c>
       <c r="H99" s="2">
+        <v>26441.360757233106</v>
+      </c>
+      <c r="I99" s="2">
         <v>32.256977317583683</v>
       </c>
-      <c r="I99" s="2">
+      <c r="J99" s="2">
         <v>19.195576022843543</v>
       </c>
-      <c r="J99" s="2">
+      <c r="K99" s="2">
+        <v>23.970312912703008</v>
+      </c>
+      <c r="L99" s="2">
         <v>26.685854532059082</v>
       </c>
-      <c r="K99" s="2">
+      <c r="M99" s="2">
         <v>37.828100103108284</v>
       </c>
-      <c r="L99" s="2">
+      <c r="N99" s="2">
         <v>16.340478064515526</v>
       </c>
-      <c r="M99" s="2">
+      <c r="O99" s="2">
         <v>22.050673981171563</v>
       </c>
-      <c r="N99" s="2">
+      <c r="P99" s="2">
+        <v>20.885770467465093</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>27.054855357940923</v>
+      </c>
+      <c r="R99" s="2">
         <v>40.559763222752679</v>
       </c>
-      <c r="O99" s="2">
+      <c r="S99" s="2">
         <v>25.442478823089253</v>
       </c>
-      <c r="P99" s="2">
+      <c r="T99" s="2">
+        <v>31.218663612969287</v>
+      </c>
+      <c r="U99" s="2">
         <v>33.915279992771715</v>
       </c>
-      <c r="Q99" s="2">
+      <c r="V99" s="2">
         <v>47.204246452733642</v>
       </c>
-      <c r="R99" s="2">
+      <c r="W99" s="2">
         <v>21.98825276214998</v>
       </c>
-      <c r="S99" s="2">
+      <c r="X99" s="2">
         <v>28.89670488402853</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y99" s="2">
+        <v>27.393957657945972</v>
+      </c>
+      <c r="Z99" s="2">
+        <v>35.043369567992606</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>240</v>
       </c>
@@ -6263,51 +8366,72 @@
         <v>26408.52118142194</v>
       </c>
       <c r="H100" s="2">
+        <v>28906.687637418283</v>
+      </c>
+      <c r="I100" s="2">
         <v>34.635626456109598</v>
       </c>
-      <c r="I100" s="2">
+      <c r="J100" s="2">
         <v>26.48956505778262</v>
       </c>
-      <c r="J100" s="2">
+      <c r="K100" s="2">
+        <v>26.078563449537633</v>
+      </c>
+      <c r="L100" s="2">
         <v>22.433202252896113</v>
       </c>
-      <c r="K100" s="2">
+      <c r="M100" s="2">
         <v>46.838050659323081</v>
       </c>
-      <c r="L100" s="2">
+      <c r="N100" s="2">
         <v>22.054280239505069</v>
       </c>
-      <c r="M100" s="2">
+      <c r="O100" s="2">
         <v>30.924849876060172</v>
       </c>
-      <c r="N100" s="2">
+      <c r="P100" s="2">
+        <v>21.682593886501344</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>30.474533012573922</v>
+      </c>
+      <c r="R100" s="2">
         <v>43.504872436639246</v>
       </c>
-      <c r="O100" s="2">
+      <c r="S100" s="2">
         <v>32.778667901254792</v>
       </c>
-      <c r="P100" s="2">
+      <c r="T100" s="2">
+        <v>33.310433172996021</v>
+      </c>
+      <c r="U100" s="2">
         <v>28.854455521568447</v>
       </c>
-      <c r="Q100" s="2">
+      <c r="V100" s="2">
         <v>58.155289351710046</v>
       </c>
-      <c r="R100" s="2">
+      <c r="W100" s="2">
         <v>27.343088095926039</v>
       </c>
-      <c r="S100" s="2">
+      <c r="X100" s="2">
         <v>38.214247706583549</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y100" s="2">
+        <v>28.04746198727409</v>
+      </c>
+      <c r="Z100" s="2">
+        <v>38.573404358717958</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>150000000</v>
       </c>
       <c r="B101" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="C101" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="F101" s="2">
         <v>22649.714579973439</v>
@@ -6316,43 +8440,64 @@
         <v>27714.835338302692</v>
       </c>
       <c r="H101" s="2">
+        <v>28293.355601524108</v>
+      </c>
+      <c r="I101" s="2">
         <v>53.779794181085649</v>
       </c>
-      <c r="I101" s="2">
+      <c r="J101" s="2">
         <v>54.199530606108858</v>
       </c>
-      <c r="J101" s="2">
+      <c r="K101" s="2">
+        <v>29.784411668879862</v>
+      </c>
+      <c r="L101" s="2">
         <v>49.17024923179109</v>
       </c>
-      <c r="K101" s="2">
+      <c r="M101" s="2">
         <v>58.389339130380201</v>
       </c>
-      <c r="L101" s="2">
+      <c r="N101" s="2">
         <v>51.84942881055008</v>
       </c>
-      <c r="M101" s="2">
+      <c r="O101" s="2">
         <v>56.549632401667637</v>
       </c>
-      <c r="N101" s="2">
+      <c r="P101" s="2">
+        <v>27.845286581508748</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>31.723536756250976</v>
+      </c>
+      <c r="R101" s="2">
         <v>59.385359862858721</v>
       </c>
-      <c r="O101" s="2">
+      <c r="S101" s="2">
         <v>61.811903875385546</v>
       </c>
-      <c r="P101" s="2">
+      <c r="T101" s="2">
+        <v>37.224485791068275</v>
+      </c>
+      <c r="U101" s="2">
         <v>54.625263548166416</v>
       </c>
-      <c r="Q101" s="2">
+      <c r="V101" s="2">
         <v>64.145456177551026</v>
       </c>
-      <c r="R101" s="2">
+      <c r="W101" s="2">
         <v>59.385028985965405</v>
       </c>
-      <c r="S101" s="2">
+      <c r="X101" s="2">
         <v>64.238778764805687</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y101" s="2">
+        <v>35.032290792871947</v>
+      </c>
+      <c r="Z101" s="2">
+        <v>39.416680789264603</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>231</v>
       </c>
@@ -6366,43 +8511,64 @@
         <v>26950.662824722331</v>
       </c>
       <c r="H102" s="2">
+        <v>26728.268055239158</v>
+      </c>
+      <c r="I102" s="2">
         <v>35.625822933207338</v>
       </c>
-      <c r="I102" s="2">
+      <c r="J102" s="2">
         <v>66.34170565978981</v>
       </c>
-      <c r="J102" s="2">
+      <c r="K102" s="2">
+        <v>42.483152655902586</v>
+      </c>
+      <c r="L102" s="2">
         <v>24.989434266006093</v>
       </c>
-      <c r="K102" s="2">
+      <c r="M102" s="2">
         <v>46.262211600408577</v>
       </c>
-      <c r="L102" s="2">
+      <c r="N102" s="2">
         <v>62.659562100718816</v>
       </c>
-      <c r="M102" s="2">
+      <c r="O102" s="2">
         <v>70.023849218860803</v>
       </c>
-      <c r="N102" s="2">
+      <c r="P102" s="2">
+        <v>38.104731953309454</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>46.861573358495718</v>
+      </c>
+      <c r="R102" s="2">
         <v>45.486829591810967</v>
       </c>
-      <c r="O102" s="2">
+      <c r="S102" s="2">
         <v>73.502529483493362</v>
       </c>
-      <c r="P102" s="2">
+      <c r="T102" s="2">
+        <v>53.509336827250984</v>
+      </c>
+      <c r="U102" s="2">
         <v>33.606686426207141</v>
       </c>
-      <c r="Q102" s="2">
+      <c r="V102" s="2">
         <v>57.366972757414793</v>
       </c>
-      <c r="R102" s="2">
+      <c r="W102" s="2">
         <v>69.896564226267486</v>
       </c>
-      <c r="S102" s="2">
+      <c r="X102" s="2">
         <v>77.108494740719237</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y102" s="2">
+        <v>48.83286910895248</v>
+      </c>
+      <c r="Z102" s="2">
+        <v>58.185804545549487</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>232</v>
       </c>
@@ -6416,43 +8582,64 @@
         <v>29223.924913835384</v>
       </c>
       <c r="H103" s="2">
+        <v>29082.521438676551</v>
+      </c>
+      <c r="I103" s="2">
         <v>72.449239638092223</v>
       </c>
-      <c r="I103" s="2">
+      <c r="J103" s="2">
         <v>64.16551282135076</v>
       </c>
-      <c r="J103" s="2">
+      <c r="K103" s="2">
+        <v>7.3992894987843814</v>
+      </c>
+      <c r="L103" s="2">
         <v>65.742758158467609</v>
       </c>
-      <c r="K103" s="2">
+      <c r="M103" s="2">
         <v>79.155721117716837</v>
       </c>
-      <c r="L103" s="2">
+      <c r="N103" s="2">
         <v>60.268043881895764</v>
       </c>
-      <c r="M103" s="2">
+      <c r="O103" s="2">
         <v>68.062981760805755</v>
       </c>
-      <c r="N103" s="2">
+      <c r="P103" s="2">
+        <v>6.0402733413854648</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>8.7583056561832979</v>
+      </c>
+      <c r="R103" s="2">
         <v>77.091550913601552</v>
       </c>
-      <c r="O103" s="2">
+      <c r="S103" s="2">
         <v>71.161071510849808</v>
       </c>
-      <c r="P103" s="2">
+      <c r="T103" s="2">
+        <v>10.892559814580459</v>
+      </c>
+      <c r="U103" s="2">
         <v>70.860663757880275</v>
       </c>
-      <c r="Q103" s="2">
+      <c r="V103" s="2">
         <v>83.322438069322828</v>
       </c>
-      <c r="R103" s="2">
+      <c r="W103" s="2">
         <v>67.591955599428871</v>
       </c>
-      <c r="S103" s="2">
+      <c r="X103" s="2">
         <v>74.730187422270731</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y103" s="2">
+        <v>9.1417888952987632</v>
+      </c>
+      <c r="Z103" s="2">
+        <v>12.643330733862154</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>233</v>
       </c>
@@ -6466,43 +8653,64 @@
         <v>25368.26654621261</v>
       </c>
       <c r="H104" s="2">
+        <v>25370.557435651095</v>
+      </c>
+      <c r="I104" s="2">
         <v>45.72436253609245</v>
       </c>
-      <c r="I104" s="2">
+      <c r="J104" s="2">
         <v>40.645058552492841</v>
       </c>
-      <c r="J104" s="2">
+      <c r="K104" s="2">
+        <v>29.781493823530369</v>
+      </c>
+      <c r="L104" s="2">
         <v>39.178196445892112</v>
       </c>
-      <c r="K104" s="2">
+      <c r="M104" s="2">
         <v>52.270528626292787</v>
       </c>
-      <c r="L104" s="2">
+      <c r="N104" s="2">
         <v>35.669993106551509</v>
       </c>
-      <c r="M104" s="2">
+      <c r="O104" s="2">
         <v>45.620123998434167</v>
       </c>
-      <c r="N104" s="2">
+      <c r="P104" s="2">
+        <v>25.703493011351579</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>33.859494635709162</v>
+      </c>
+      <c r="R104" s="2">
         <v>54.273008871125626</v>
       </c>
-      <c r="O104" s="2">
+      <c r="S104" s="2">
         <v>48.545403557941171</v>
       </c>
-      <c r="P104" s="2">
+      <c r="T104" s="2">
+        <v>37.980314316549993</v>
+      </c>
+      <c r="U104" s="2">
         <v>48.255115740274412</v>
       </c>
-      <c r="Q104" s="2">
+      <c r="V104" s="2">
         <v>60.290902001976846</v>
       </c>
-      <c r="R104" s="2">
+      <c r="W104" s="2">
         <v>43.045531730296155</v>
       </c>
-      <c r="S104" s="2">
+      <c r="X104" s="2">
         <v>54.045275385586187</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y104" s="2">
+        <v>33.09743989504689</v>
+      </c>
+      <c r="Z104" s="2">
+        <v>42.863188738053097</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>234</v>
       </c>
@@ -6516,43 +8724,64 @@
         <v>29149.780615164542</v>
       </c>
       <c r="H105" s="2">
+        <v>31782.457904924991</v>
+      </c>
+      <c r="I105" s="2">
         <v>63.774464841535739</v>
       </c>
-      <c r="I105" s="2">
+      <c r="J105" s="2">
         <v>75.280957400450077</v>
       </c>
-      <c r="J105" s="2">
+      <c r="K105" s="2">
+        <v>50.964668855264442</v>
+      </c>
+      <c r="L105" s="2">
         <v>54.842519436678842</v>
       </c>
-      <c r="K105" s="2">
+      <c r="M105" s="2">
         <v>72.706410246392636</v>
       </c>
-      <c r="L105" s="2">
+      <c r="N105" s="2">
         <v>72.154562137756642</v>
       </c>
-      <c r="M105" s="2">
+      <c r="O105" s="2">
         <v>78.407352663143513</v>
       </c>
-      <c r="N105" s="2">
+      <c r="P105" s="2">
+        <v>46.391858148921109</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>55.537479561607775</v>
+      </c>
+      <c r="R105" s="2">
         <v>68.709916013910615</v>
       </c>
-      <c r="O105" s="2">
+      <c r="S105" s="2">
         <v>82.482836516702335</v>
       </c>
-      <c r="P105" s="2">
+      <c r="T105" s="2">
+        <v>62.506646786387087</v>
+      </c>
+      <c r="U105" s="2">
         <v>60.145845165387534</v>
       </c>
-      <c r="Q105" s="2">
+      <c r="V105" s="2">
         <v>77.273986862433702</v>
       </c>
-      <c r="R105" s="2">
+      <c r="W105" s="2">
         <v>79.853166820195668</v>
       </c>
-      <c r="S105" s="2">
+      <c r="X105" s="2">
         <v>85.112506213208988</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Y105" s="2">
+        <v>58.27304357681605</v>
+      </c>
+      <c r="Z105" s="2">
+        <v>66.740249995958123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>235</v>
       </c>
@@ -6569,40 +8798,61 @@
         <v>21264.31459584181</v>
       </c>
       <c r="H106" s="2">
+        <v>26335.647063361899</v>
+      </c>
+      <c r="I106" s="2">
         <v>15.174171976016163</v>
       </c>
-      <c r="I106" s="2">
+      <c r="J106" s="2">
         <v>15.071665462248763</v>
       </c>
-      <c r="J106" s="2">
+      <c r="K106" s="2">
+        <v>28.144935814973373</v>
+      </c>
+      <c r="L106" s="2">
         <v>7.6228344207228975</v>
       </c>
-      <c r="K106" s="2">
+      <c r="M106" s="2">
         <v>22.725509531309427</v>
       </c>
-      <c r="L106" s="2">
+      <c r="N106" s="2">
         <v>12.832256720016138</v>
       </c>
-      <c r="M106" s="2">
+      <c r="O106" s="2">
         <v>17.311074204481386</v>
       </c>
-      <c r="N106" s="2">
+      <c r="P106" s="2">
+        <v>23.301752262174418</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>32.98811936777232</v>
+      </c>
+      <c r="R106" s="2">
         <v>17.856282218961436</v>
       </c>
-      <c r="O106" s="2">
+      <c r="S106" s="2">
         <v>22.200120363177124</v>
       </c>
-      <c r="P106" s="2">
+      <c r="T106" s="2">
+        <v>36.522625317038759</v>
+      </c>
+      <c r="U106" s="2">
         <v>8.7473649851050652</v>
       </c>
-      <c r="Q106" s="2">
+      <c r="V106" s="2">
         <v>26.965199452817807</v>
       </c>
-      <c r="R106" s="2">
+      <c r="W106" s="2">
         <v>19.35286194292722</v>
       </c>
-      <c r="S106" s="2">
+      <c r="X106" s="2">
         <v>25.047378783427021</v>
+      </c>
+      <c r="Y106" s="2">
+        <v>31.398067844395992</v>
+      </c>
+      <c r="Z106" s="2">
+        <v>41.647182789681523</v>
       </c>
     </row>
   </sheetData>
